--- a/results/mp/tinybert/dilemma/confidence/126/stop-words-topk-0.1/percents/scores-25.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/126/stop-words-topk-0.1/percents/scores-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="91">
   <si>
     <t>anchor score</t>
   </si>
@@ -67,76 +67,55 @@
     <t>evil</t>
   </si>
   <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>vicious</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>annoying</t>
-  </si>
-  <si>
-    <t>frustrating</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>harsh</t>
-  </si>
-  <si>
-    <t>harmful</t>
-  </si>
-  <si>
-    <t>sucks</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>dumb</t>
+    <t>false</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>bad</t>
   </si>
   <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>terribly</t>
-  </si>
-  <si>
-    <t>hated</t>
-  </si>
-  <si>
-    <t>toxic</t>
-  </si>
-  <si>
-    <t>painful</t>
-  </si>
-  <si>
-    <t>badly</t>
-  </si>
-  <si>
-    <t>slowly</t>
-  </si>
-  <si>
-    <t>biased</t>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>crap</t>
   </si>
   <si>
     <t>destroying</t>
@@ -145,54 +124,24 @@
     <t>uncomfortable</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>insane</t>
   </si>
   <si>
-    <t>destructive</t>
-  </si>
-  <si>
-    <t>dirty</t>
-  </si>
-  <si>
-    <t>ridiculous</t>
+    <t>half</t>
   </si>
   <si>
     <t>shocked</t>
   </si>
   <si>
-    <t>racist</t>
-  </si>
-  <si>
     <t>serious</t>
   </si>
   <si>
     <t>afraid</t>
   </si>
   <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
-    <t>sad</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>[UNK]</t>
-  </si>
-  <si>
     <t>0.95-negative</t>
   </si>
   <si>
@@ -202,12 +151,12 @@
     <t>good</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
@@ -226,142 +175,97 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>fascinating</t>
+  </si>
+  <si>
     <t>glad</t>
   </si>
   <si>
     <t>wow</t>
   </si>
   <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>smart</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>holy</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>irony</t>
+  </si>
+  <si>
     <t>true</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>fascinating</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>please</t>
   </si>
   <si>
     <t>worth</t>
   </si>
   <si>
-    <t>really</t>
+    <t>one</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>dilemma</t>
+  </si>
+  <si>
+    <t>watch</t>
   </si>
   <si>
     <t>netflix</t>
   </si>
   <si>
-    <t>solid</t>
-  </si>
-  <si>
-    <t>timely</t>
-  </si>
-  <si>
-    <t>accurate</t>
-  </si>
-  <si>
-    <t>greatest</t>
-  </si>
-  <si>
-    <t>valuable</t>
-  </si>
-  <si>
-    <t>easier</t>
-  </si>
-  <si>
-    <t>engagement</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>necessary</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>masterpiece</t>
-  </si>
-  <si>
-    <t>remarkably</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>specially</t>
-  </si>
-  <si>
-    <t>since</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>wat</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>paying</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>twitter</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>dilemma</t>
+    <t>media</t>
+  </si>
+  <si>
+    <t>…</t>
   </si>
   <si>
     <t>0.95-positive</t>
@@ -740,7 +644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BS58"/>
+  <dimension ref="A1:BS43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -748,28 +652,28 @@
   <sheetData>
     <row r="1" spans="1:71">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="S1" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="AB1" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="AK1" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="AT1" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="BC1" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="BL1" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:71">
@@ -971,13 +875,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.036061909640579</v>
+        <v>0.03752718067171007</v>
       </c>
       <c r="C3">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D3">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -989,19 +893,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="K3">
-        <v>0.01427881975690611</v>
+        <v>0.1389759316563235</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -1013,19 +917,19 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="T3">
-        <v>0.04272264222132167</v>
+        <v>0.04449027055224646</v>
       </c>
       <c r="U3">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="V3">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -1037,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="AC3">
-        <v>0.1139445277870508</v>
+        <v>0.07924132657822931</v>
       </c>
       <c r="AD3">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AE3">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AF3">
         <v>1</v>
@@ -1061,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AL3">
-        <v>0.2426308743361033</v>
+        <v>0.05466709422379962</v>
       </c>
       <c r="AM3">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AN3">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AO3">
         <v>0</v>
@@ -1085,19 +989,19 @@
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="AU3">
-        <v>0.08333819807161345</v>
+        <v>0.06100446178864605</v>
       </c>
       <c r="AV3">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AW3">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AX3">
         <v>1</v>
@@ -1109,19 +1013,19 @@
         <v>0</v>
       </c>
       <c r="BA3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BD3">
-        <v>0.2052504704641238</v>
+        <v>0.07095001209828469</v>
       </c>
       <c r="BE3">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="BF3">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="BG3">
         <v>0</v>
@@ -1133,19 +1037,19 @@
         <v>0</v>
       </c>
       <c r="BJ3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="BM3">
-        <v>0.06769343817786731</v>
+        <v>0.0521706288217327</v>
       </c>
       <c r="BN3">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="BO3">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="BP3">
         <v>1</v>
@@ -1157,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="BS3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:71">
@@ -1165,13 +1069,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.01072826768644617</v>
+        <v>0.01164503689638535</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1183,19 +1087,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="K4">
-        <v>0.01164733431000626</v>
+        <v>0.1034711007016973</v>
       </c>
       <c r="L4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1207,19 +1111,19 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="T4">
-        <v>0.01269396538817033</v>
+        <v>0.01380101012867913</v>
       </c>
       <c r="U4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="V4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -1231,19 +1135,19 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="AC4">
-        <v>0.09257330398716367</v>
+        <v>0.06211646132782836</v>
       </c>
       <c r="AD4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF4">
         <v>1</v>
@@ -1255,19 +1159,19 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AL4">
-        <v>0.07480800887254273</v>
+        <v>0.01695204792972389</v>
       </c>
       <c r="AM4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AN4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO4">
         <v>0</v>
@@ -1279,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="AR4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="AU4">
-        <v>0.06834895172572213</v>
+        <v>0.04949096617811998</v>
       </c>
       <c r="AV4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX4">
         <v>1</v>
@@ -1303,19 +1207,19 @@
         <v>0</v>
       </c>
       <c r="BA4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BD4">
-        <v>0.06561201332090719</v>
+        <v>0.0219937084113955</v>
       </c>
       <c r="BE4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BF4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BG4">
         <v>0</v>
@@ -1327,19 +1231,19 @@
         <v>0</v>
       </c>
       <c r="BJ4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="BM4">
-        <v>0.05596640934852801</v>
+        <v>0.04337524856086789</v>
       </c>
       <c r="BN4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BO4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BP4">
         <v>1</v>
@@ -1351,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="BS4">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:71">
@@ -1359,13 +1263,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.008549149876129656</v>
+        <v>0.009456275740207767</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1377,13 +1281,13 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="K5">
-        <v>0.01036376877215949</v>
+        <v>0.09593882998733318</v>
       </c>
       <c r="L5">
         <v>23</v>
@@ -1401,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="T5">
-        <v>0.009996217013656682</v>
+        <v>0.01109197151260436</v>
       </c>
       <c r="U5">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V5">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1425,13 +1329,13 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="AC5">
-        <v>0.08289456833546084</v>
+        <v>0.05898022416739235</v>
       </c>
       <c r="AD5">
         <v>23</v>
@@ -1449,19 +1353,19 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AK5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AL5">
-        <v>0.05908713294087964</v>
+        <v>0.01348260379533785</v>
       </c>
       <c r="AM5">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN5">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO5">
         <v>0</v>
@@ -1473,13 +1377,13 @@
         <v>0</v>
       </c>
       <c r="AR5">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="AU5">
-        <v>0.06204636922637827</v>
+        <v>0.04769682995613745</v>
       </c>
       <c r="AV5">
         <v>23</v>
@@ -1497,19 +1401,19 @@
         <v>0</v>
       </c>
       <c r="BA5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BC5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="BD5">
-        <v>0.05199365214095826</v>
+        <v>0.01730761544771142</v>
       </c>
       <c r="BE5">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BF5">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BG5">
         <v>0</v>
@@ -1521,13 +1425,13 @@
         <v>0</v>
       </c>
       <c r="BJ5">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BL5" s="1" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="BM5">
-        <v>0.05138958442692238</v>
+        <v>0.04223121835501417</v>
       </c>
       <c r="BN5">
         <v>23</v>
@@ -1545,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="BS5">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:71">
@@ -1553,13 +1457,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.006009889244288458</v>
+        <v>0.00560287121157061</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1571,19 +1475,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="K6">
-        <v>0.009069906534919714</v>
+        <v>0.09582385764876264</v>
       </c>
       <c r="L6">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1595,19 +1499,19 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="T6">
-        <v>0.007118402481798744</v>
+        <v>0.006625938377961627</v>
       </c>
       <c r="U6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -1619,19 +1523,19 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="AC6">
-        <v>0.07289363228432096</v>
+        <v>0.05876509573678957</v>
       </c>
       <c r="AD6">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AE6">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AF6">
         <v>1</v>
@@ -1643,19 +1547,19 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AK6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AL6">
-        <v>0.04374439912358773</v>
+        <v>0.008121190390379266</v>
       </c>
       <c r="AM6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO6">
         <v>0</v>
@@ -1667,19 +1571,19 @@
         <v>0</v>
       </c>
       <c r="AR6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="AU6">
-        <v>0.05536233371148185</v>
+        <v>0.04745112405530854</v>
       </c>
       <c r="AV6">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AW6">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AX6">
         <v>1</v>
@@ -1691,19 +1595,19 @@
         <v>0</v>
       </c>
       <c r="BA6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BC6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="BD6">
-        <v>0.03984613918936452</v>
+        <v>0.01051359361024749</v>
       </c>
       <c r="BE6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BF6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BG6">
         <v>0</v>
@@ -1715,19 +1619,19 @@
         <v>0</v>
       </c>
       <c r="BJ6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL6" s="1" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="BM6">
-        <v>0.04640101886753626</v>
+        <v>0.04197070090254823</v>
       </c>
       <c r="BN6">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BO6">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BP6">
         <v>1</v>
@@ -1739,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="BS6">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:71">
@@ -1747,7 +1651,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.004288732899730217</v>
+        <v>0.00430812142196745</v>
       </c>
       <c r="C7">
         <v>9</v>
@@ -1768,10 +1672,10 @@
         <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="K7">
-        <v>0.006495052934681418</v>
+        <v>0.06093987732241739</v>
       </c>
       <c r="L7">
         <v>14</v>
@@ -1795,7 +1699,7 @@
         <v>12</v>
       </c>
       <c r="T7">
-        <v>0.005065358824738934</v>
+        <v>0.005088423002807875</v>
       </c>
       <c r="U7">
         <v>9</v>
@@ -1816,10 +1720,10 @@
         <v>2</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="AC7">
-        <v>0.05329451068133752</v>
+        <v>0.04280192401164364</v>
       </c>
       <c r="AD7">
         <v>14</v>
@@ -1843,7 +1747,7 @@
         <v>12</v>
       </c>
       <c r="AL7">
-        <v>0.03219803609206857</v>
+        <v>0.006228863774805418</v>
       </c>
       <c r="AM7">
         <v>9</v>
@@ -1864,10 +1768,10 @@
         <v>2</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="AU7">
-        <v>0.04247107895112973</v>
+        <v>0.03726444030925857</v>
       </c>
       <c r="AV7">
         <v>14</v>
@@ -1891,7 +1795,7 @@
         <v>12</v>
       </c>
       <c r="BD7">
-        <v>0.03017841881660832</v>
+        <v>0.008053569010001489</v>
       </c>
       <c r="BE7">
         <v>9</v>
@@ -1912,10 +1816,10 @@
         <v>2</v>
       </c>
       <c r="BL7" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="BM7">
-        <v>0.03693856354598964</v>
+        <v>0.03458211488499947</v>
       </c>
       <c r="BN7">
         <v>14</v>
@@ -1941,13 +1845,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.003853939007606214</v>
+        <v>0.004305551018619758</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1959,19 +1863,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="K8">
-        <v>0.005776858152018999</v>
+        <v>0.04274313093663863</v>
       </c>
       <c r="L8">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M8">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1983,19 +1887,19 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="T8">
-        <v>0.004530700082047883</v>
+        <v>0.005076213586906331</v>
       </c>
       <c r="U8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W8">
         <v>0</v>
@@ -2007,13 +1911,13 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="AC8">
-        <v>0.0326482377801837</v>
+        <v>0.03167218508551339</v>
       </c>
       <c r="AD8">
         <v>8</v>
@@ -2037,13 +1941,13 @@
         <v>13</v>
       </c>
       <c r="AL8">
-        <v>0.02910178359009926</v>
+        <v>0.006202566571325172</v>
       </c>
       <c r="AM8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO8">
         <v>0</v>
@@ -2055,13 +1959,13 @@
         <v>0</v>
       </c>
       <c r="AR8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="AU8">
-        <v>0.02834010189023172</v>
+        <v>0.02991638443667972</v>
       </c>
       <c r="AV8">
         <v>8</v>
@@ -2085,13 +1989,13 @@
         <v>13</v>
       </c>
       <c r="BD8">
-        <v>0.02751181488625588</v>
+        <v>0.008004731346395316</v>
       </c>
       <c r="BE8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BF8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BG8">
         <v>0</v>
@@ -2103,13 +2007,13 @@
         <v>0</v>
       </c>
       <c r="BJ8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BL8" s="1" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="BM8">
-        <v>0.02613795115165644</v>
+        <v>0.02906588464771084</v>
       </c>
       <c r="BN8">
         <v>8</v>
@@ -2135,7 +2039,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.003004944622144229</v>
+        <v>0.003018512439059678</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -2156,10 +2060,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="K9">
-        <v>0.003886735061415841</v>
+        <v>0.03742328647076066</v>
       </c>
       <c r="L9">
         <v>8</v>
@@ -2183,7 +2087,7 @@
         <v>14</v>
       </c>
       <c r="T9">
-        <v>0.003559201240899372</v>
+        <v>0.00357532645945721</v>
       </c>
       <c r="U9">
         <v>6</v>
@@ -2204,16 +2108,16 @@
         <v>0</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AC9">
-        <v>0.03082103282060372</v>
+        <v>0.02997498944693371</v>
       </c>
       <c r="AD9">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AE9">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AF9">
         <v>1</v>
@@ -2225,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>278</v>
+        <v>0</v>
       </c>
       <c r="AK9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="AL9">
-        <v>0.023867732273427</v>
+        <v>0.004389131566192066</v>
       </c>
       <c r="AM9">
         <v>6</v>
@@ -2252,10 +2156,10 @@
         <v>0</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="AU9">
-        <v>0.02633460431100525</v>
+        <v>0.02887189278519112</v>
       </c>
       <c r="AV9">
         <v>7</v>
@@ -2279,7 +2183,7 @@
         <v>14</v>
       </c>
       <c r="BD9">
-        <v>0.02331997313829793</v>
+        <v>0.005691219736967833</v>
       </c>
       <c r="BE9">
         <v>6</v>
@@ -2300,10 +2204,10 @@
         <v>0</v>
       </c>
       <c r="BL9" s="1" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="BM9">
-        <v>0.02471527800389969</v>
+        <v>0.02833755907330442</v>
       </c>
       <c r="BN9">
         <v>7</v>
@@ -2329,7 +2233,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.003002370447295977</v>
+        <v>0.003015942035711985</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -2350,10 +2254,10 @@
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="K10">
-        <v>0.003461454056981837</v>
+        <v>0.03358816771043627</v>
       </c>
       <c r="L10">
         <v>7</v>
@@ -2377,7 +2281,7 @@
         <v>15</v>
       </c>
       <c r="T10">
-        <v>0.003546973910370174</v>
+        <v>0.003563117043555667</v>
       </c>
       <c r="U10">
         <v>6</v>
@@ -2398,16 +2302,16 @@
         <v>1</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AC10">
-        <v>0.02950254266280869</v>
+        <v>0.02814871674999238</v>
       </c>
       <c r="AD10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF10">
         <v>1</v>
@@ -2425,7 +2329,7 @@
         <v>15</v>
       </c>
       <c r="AL10">
-        <v>0.02374792556251872</v>
+        <v>0.004362834362711818</v>
       </c>
       <c r="AM10">
         <v>6</v>
@@ -2446,10 +2350,10 @@
         <v>1</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="AU10">
-        <v>0.02404301697011435</v>
+        <v>0.02767997759320517</v>
       </c>
       <c r="AV10">
         <v>6</v>
@@ -2473,7 +2377,7 @@
         <v>15</v>
       </c>
       <c r="BD10">
-        <v>0.02317730237420457</v>
+        <v>0.00564238207336166</v>
       </c>
       <c r="BE10">
         <v>6</v>
@@ -2494,10 +2398,10 @@
         <v>1</v>
       </c>
       <c r="BL10" s="1" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="BM10">
-        <v>0.02298379937780756</v>
+        <v>0.02745292302741844</v>
       </c>
       <c r="BN10">
         <v>6</v>
@@ -2523,7 +2427,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.002575299079716731</v>
+        <v>0.002586929175858625</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -2544,10 +2448,10 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="K11">
-        <v>0.003028450528003076</v>
+        <v>0.02968406554696955</v>
       </c>
       <c r="L11">
         <v>6</v>
@@ -2571,7 +2475,7 @@
         <v>16</v>
       </c>
       <c r="T11">
-        <v>0.003048997159266719</v>
+        <v>0.00306282133440596</v>
       </c>
       <c r="U11">
         <v>5</v>
@@ -2592,10 +2496,10 @@
         <v>0</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="AC11">
-        <v>0.02611519724585589</v>
+        <v>0.02814871674999238</v>
       </c>
       <c r="AD11">
         <v>6</v>
@@ -2619,7 +2523,7 @@
         <v>16</v>
       </c>
       <c r="AL11">
-        <v>0.02101109319327429</v>
+        <v>0.00375835602766745</v>
       </c>
       <c r="AM11">
         <v>5</v>
@@ -2640,10 +2544,10 @@
         <v>0</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="AU11">
-        <v>0.02404301697011435</v>
+        <v>0.02767997759320517</v>
       </c>
       <c r="AV11">
         <v>6</v>
@@ -2667,7 +2571,7 @@
         <v>16</v>
       </c>
       <c r="BD11">
-        <v>0.02093871073613223</v>
+        <v>0.004871211536885832</v>
       </c>
       <c r="BE11">
         <v>5</v>
@@ -2688,10 +2592,10 @@
         <v>0</v>
       </c>
       <c r="BL11" s="1" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="BM11">
-        <v>0.02298379937780756</v>
+        <v>0.02745292302741844</v>
       </c>
       <c r="BN11">
         <v>6</v>
@@ -2717,13 +2621,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.002145653537289234</v>
+        <v>0.002568936352424772</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2735,13 +2639,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="K12">
-        <v>0.003028450528003076</v>
+        <v>0.02968406554696955</v>
       </c>
       <c r="L12">
         <v>6</v>
@@ -2765,13 +2669,13 @@
         <v>17</v>
       </c>
       <c r="T12">
-        <v>0.002538793077634066</v>
+        <v>0.002977355423095157</v>
       </c>
       <c r="U12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W12">
         <v>0</v>
@@ -2783,19 +2687,19 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="AC12">
-        <v>0.02611519724585589</v>
+        <v>0.02518986243482288</v>
       </c>
       <c r="AD12">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AE12">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AF12">
         <v>1</v>
@@ -2807,43 +2711,43 @@
         <v>0</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="AK12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AL12">
-        <v>0.01815445411312158</v>
+        <v>0.00357427560330572</v>
       </c>
       <c r="AM12">
+        <v>5</v>
+      </c>
+      <c r="AN12">
+        <v>5</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>1</v>
+      </c>
+      <c r="AQ12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>7</v>
+      </c>
+      <c r="AT12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AU12">
+        <v>0.02524700602906748</v>
+      </c>
+      <c r="AV12">
         <v>4</v>
       </c>
-      <c r="AN12">
+      <c r="AW12">
         <v>4</v>
-      </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-      <c r="AP12">
-        <v>1</v>
-      </c>
-      <c r="AQ12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>0</v>
-      </c>
-      <c r="AT12" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU12">
-        <v>0.01707289169355349</v>
-      </c>
-      <c r="AV12">
-        <v>3</v>
-      </c>
-      <c r="AW12">
-        <v>3</v>
       </c>
       <c r="AX12">
         <v>1</v>
@@ -2861,37 +2765,37 @@
         <v>17</v>
       </c>
       <c r="BD12">
-        <v>0.01855744833396652</v>
+        <v>0.00452934789164262</v>
       </c>
       <c r="BE12">
+        <v>5</v>
+      </c>
+      <c r="BF12">
+        <v>5</v>
+      </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
+      <c r="BH12">
+        <v>1</v>
+      </c>
+      <c r="BI12" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ12">
+        <v>7</v>
+      </c>
+      <c r="BL12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BM12">
+        <v>0.02563154744515329</v>
+      </c>
+      <c r="BN12">
         <v>4</v>
       </c>
-      <c r="BF12">
+      <c r="BO12">
         <v>4</v>
-      </c>
-      <c r="BG12">
-        <v>0</v>
-      </c>
-      <c r="BH12">
-        <v>1</v>
-      </c>
-      <c r="BI12" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ12">
-        <v>0</v>
-      </c>
-      <c r="BL12" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BM12">
-        <v>0.01768642834008608</v>
-      </c>
-      <c r="BN12">
-        <v>3</v>
-      </c>
-      <c r="BO12">
-        <v>3</v>
       </c>
       <c r="BP12">
         <v>1</v>
@@ -2911,7 +2815,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.001716007994861737</v>
+        <v>0.001723762649456519</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -2932,16 +2836,16 @@
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="K13">
-        <v>0.00172686576621854</v>
+        <v>0.02185286675232202</v>
       </c>
       <c r="L13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -2959,7 +2863,7 @@
         <v>18</v>
       </c>
       <c r="T13">
-        <v>0.002028588996001413</v>
+        <v>0.002037811084303458</v>
       </c>
       <c r="U13">
         <v>3</v>
@@ -2980,16 +2884,16 @@
         <v>0</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="AC13">
-        <v>0.01587261089513824</v>
+        <v>0.02445314566998914</v>
       </c>
       <c r="AD13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF13">
         <v>1</v>
@@ -3007,7 +2911,7 @@
         <v>18</v>
       </c>
       <c r="AL13">
-        <v>0.01529781503296886</v>
+        <v>0.002496804950618217</v>
       </c>
       <c r="AM13">
         <v>3</v>
@@ -3028,10 +2932,10 @@
         <v>0</v>
       </c>
       <c r="AT13" s="1" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="AU13">
-        <v>0.01621462240856018</v>
+        <v>0.02405509083708152</v>
       </c>
       <c r="AV13">
         <v>3</v>
@@ -3049,13 +2953,13 @@
         <v>0</v>
       </c>
       <c r="BA13">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="BC13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="BD13">
-        <v>0.01617618593180081</v>
+        <v>0.00323119513672183</v>
       </c>
       <c r="BE13">
         <v>3</v>
@@ -3076,10 +2980,10 @@
         <v>0</v>
       </c>
       <c r="BL13" s="1" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="BM13">
-        <v>0.01676001190507998</v>
+        <v>0.02474691139926731</v>
       </c>
       <c r="BN13">
         <v>3</v>
@@ -3097,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="BS13">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:71">
@@ -3105,7 +3009,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.001716007994861737</v>
+        <v>0.001723762649456519</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -3126,10 +3030,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="K14">
-        <v>0.001703698192584268</v>
+        <v>0.0179487645888553</v>
       </c>
       <c r="L14">
         <v>3</v>
@@ -3147,13 +3051,13 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="T14">
-        <v>0.002028588996001413</v>
+        <v>0.002037811084303458</v>
       </c>
       <c r="U14">
         <v>3</v>
@@ -3174,10 +3078,10 @@
         <v>0</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="AC14">
-        <v>0.0151476599964049</v>
+        <v>0.0226268729730478</v>
       </c>
       <c r="AD14">
         <v>3</v>
@@ -3195,13 +3099,13 @@
         <v>0</v>
       </c>
       <c r="AI14">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AK14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="AL14">
-        <v>0.01529781503296886</v>
+        <v>0.002496804950618217</v>
       </c>
       <c r="AM14">
         <v>3</v>
@@ -3222,16 +3126,16 @@
         <v>0</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AU14">
-        <v>0.01586473111633709</v>
+        <v>0.02395680847674997</v>
       </c>
       <c r="AV14">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="AW14">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="AX14">
         <v>1</v>
@@ -3243,13 +3147,13 @@
         <v>0</v>
       </c>
       <c r="BA14">
-        <v>278</v>
+        <v>3</v>
       </c>
       <c r="BC14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="BD14">
-        <v>0.01617618593180081</v>
+        <v>0.00323119513672183</v>
       </c>
       <c r="BE14">
         <v>3</v>
@@ -3270,10 +3174,10 @@
         <v>0</v>
       </c>
       <c r="BL14" s="1" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="BM14">
-        <v>0.01634827126729949</v>
+        <v>0.02464270441828094</v>
       </c>
       <c r="BN14">
         <v>3</v>
@@ -3291,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="BS14">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:71">
@@ -3299,7 +3203,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.001713433820013485</v>
+        <v>0.001723762649456519</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -3317,13 +3221,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="K15">
-        <v>0.001693401493191259</v>
+        <v>0.01790277565342708</v>
       </c>
       <c r="L15">
         <v>3</v>
@@ -3341,13 +3245,13 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="T15">
-        <v>0.002016361665472215</v>
+        <v>0.002037811084303458</v>
       </c>
       <c r="U15">
         <v>3</v>
@@ -3365,13 +3269,13 @@
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="AC15">
-        <v>0.01482545959696785</v>
+        <v>0.02254082160080669</v>
       </c>
       <c r="AD15">
         <v>3</v>
@@ -3389,13 +3293,13 @@
         <v>0</v>
       </c>
       <c r="AI15">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="AK15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="AL15">
-        <v>0.01517800832206056</v>
+        <v>0.002496804950618217</v>
       </c>
       <c r="AM15">
         <v>3</v>
@@ -3413,19 +3317,19 @@
         <v>0</v>
       </c>
       <c r="AR15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="AU15">
-        <v>0.01583316939300759</v>
+        <v>0.02291231682526136</v>
       </c>
       <c r="AV15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX15">
         <v>1</v>
@@ -3437,13 +3341,13 @@
         <v>0</v>
       </c>
       <c r="BA15">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="BC15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="BD15">
-        <v>0.01603351516770745</v>
+        <v>0.00323119513672183</v>
       </c>
       <c r="BE15">
         <v>3</v>
@@ -3461,13 +3365,13 @@
         <v>0</v>
       </c>
       <c r="BJ15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL15" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="BM15">
-        <v>0.01605788487343909</v>
+        <v>0.02391437884387452</v>
       </c>
       <c r="BN15">
         <v>2</v>
@@ -3493,7 +3397,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.001713433820013485</v>
+        <v>0.001721192246108825</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -3514,10 +3418,10 @@
         <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="K16">
-        <v>0.001296436412088031</v>
+        <v>0.01406765689310269</v>
       </c>
       <c r="L16">
         <v>2</v>
@@ -3541,7 +3445,7 @@
         <v>21</v>
       </c>
       <c r="T16">
-        <v>0.002016361665472215</v>
+        <v>0.002025601668401916</v>
       </c>
       <c r="U16">
         <v>3</v>
@@ -3562,10 +3466,10 @@
         <v>1</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="AC16">
-        <v>0.01256581557804471</v>
+        <v>0.02084362596222702</v>
       </c>
       <c r="AD16">
         <v>2</v>
@@ -3589,7 +3493,7 @@
         <v>21</v>
       </c>
       <c r="AL16">
-        <v>0.01517800832206056</v>
+        <v>0.00247050774713797</v>
       </c>
       <c r="AM16">
         <v>3</v>
@@ -3610,10 +3514,10 @@
         <v>1</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="AU16">
-        <v>0.01487666760655072</v>
+        <v>0.02291231682526136</v>
       </c>
       <c r="AV16">
         <v>2</v>
@@ -3637,7 +3541,7 @@
         <v>21</v>
       </c>
       <c r="BD16">
-        <v>0.01603351516770745</v>
+        <v>0.003182357473115657</v>
       </c>
       <c r="BE16">
         <v>3</v>
@@ -3658,10 +3562,10 @@
         <v>1</v>
       </c>
       <c r="BL16" s="1" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="BM16">
-        <v>0.01605788487343909</v>
+        <v>0.02391437884387452</v>
       </c>
       <c r="BN16">
         <v>2</v>
@@ -3687,7 +3591,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.001692840421227465</v>
+        <v>0.001721192246108825</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -3705,13 +3609,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="K17">
-        <v>0.001296436412088031</v>
+        <v>0.01406765689310269</v>
       </c>
       <c r="L17">
         <v>2</v>
@@ -3735,7 +3639,7 @@
         <v>22</v>
       </c>
       <c r="T17">
-        <v>0.001918543021238624</v>
+        <v>0.002025601668401916</v>
       </c>
       <c r="U17">
         <v>3</v>
@@ -3753,13 +3657,13 @@
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="AC17">
-        <v>0.01256581557804471</v>
+        <v>0.02084362596222702</v>
       </c>
       <c r="AD17">
         <v>2</v>
@@ -3783,7 +3687,7 @@
         <v>22</v>
       </c>
       <c r="AL17">
-        <v>0.01421955463479422</v>
+        <v>0.00247050774713797</v>
       </c>
       <c r="AM17">
         <v>3</v>
@@ -3801,13 +3705,13 @@
         <v>0</v>
       </c>
       <c r="AR17">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AT17" s="1" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="AU17">
-        <v>0.01487666760655072</v>
+        <v>0.02281403446492979</v>
       </c>
       <c r="AV17">
         <v>2</v>
@@ -3825,13 +3729,13 @@
         <v>0</v>
       </c>
       <c r="BA17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="BD17">
-        <v>0.01489214905496051</v>
+        <v>0.003182357473115657</v>
       </c>
       <c r="BE17">
         <v>3</v>
@@ -3849,13 +3753,13 @@
         <v>0</v>
       </c>
       <c r="BJ17">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="BL17" s="1" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="BM17">
-        <v>0.01605788487343909</v>
+        <v>0.02381017186288815</v>
       </c>
       <c r="BN17">
         <v>2</v>
@@ -3873,7 +3777,7 @@
         <v>0</v>
       </c>
       <c r="BS17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:71">
@@ -3881,13 +3785,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.00128636245243424</v>
+        <v>0.001716051439413439</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3899,13 +3803,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="K18">
-        <v>0.001296436412088031</v>
+        <v>0.01402166795767447</v>
       </c>
       <c r="L18">
         <v>2</v>
@@ -3923,19 +3827,19 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="T18">
-        <v>0.00151838491436876</v>
+        <v>0.002001182836598829</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W18">
         <v>0</v>
@@ -3947,13 +3851,13 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="AC18">
-        <v>0.01256581557804471</v>
+        <v>0.02075757458998591</v>
       </c>
       <c r="AD18">
         <v>2</v>
@@ -3971,19 +3875,19 @@
         <v>0</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="AL18">
-        <v>0.01244117595281614</v>
+        <v>0.002417913340177475</v>
       </c>
       <c r="AM18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO18">
         <v>0</v>
@@ -3995,13 +3899,13 @@
         <v>0</v>
       </c>
       <c r="AR18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AT18" s="1" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="AU18">
-        <v>0.01487666760655072</v>
+        <v>0.02237176384343776</v>
       </c>
       <c r="AV18">
         <v>2</v>
@@ -4019,19 +3923,19 @@
         <v>0</v>
       </c>
       <c r="BA18">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BC18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="BD18">
-        <v>0.01379492352963511</v>
+        <v>0.003084682145903311</v>
       </c>
       <c r="BE18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BF18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG18">
         <v>0</v>
@@ -4043,13 +3947,13 @@
         <v>0</v>
       </c>
       <c r="BJ18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BL18" s="1" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="BM18">
-        <v>0.01605788487343909</v>
+        <v>0.02334124044844947</v>
       </c>
       <c r="BN18">
         <v>2</v>
@@ -4067,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="BS18">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:71">
@@ -4075,7 +3979,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.00128636245243424</v>
+        <v>0.001289608982907773</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -4093,13 +3997,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="K19">
-        <v>0.001296436412088031</v>
+        <v>0.01381471774824749</v>
       </c>
       <c r="L19">
         <v>2</v>
@@ -4117,13 +4021,13 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="T19">
-        <v>0.00151838491436876</v>
+        <v>0.001513096543350665</v>
       </c>
       <c r="U19">
         <v>2</v>
@@ -4141,13 +4045,13 @@
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="AC19">
-        <v>0.01256581557804471</v>
+        <v>0.02037034341490091</v>
       </c>
       <c r="AD19">
         <v>2</v>
@@ -4165,13 +4069,13 @@
         <v>0</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AK19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="AL19">
-        <v>0.01244117595281614</v>
+        <v>0.001839732208613354</v>
       </c>
       <c r="AM19">
         <v>2</v>
@@ -4189,19 +4093,19 @@
         <v>0</v>
       </c>
       <c r="AR19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT19" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="AU19">
-        <v>0.01487666760655072</v>
+        <v>0.0217204016332754</v>
       </c>
       <c r="AV19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX19">
         <v>1</v>
@@ -4219,7 +4123,7 @@
         <v>24</v>
       </c>
       <c r="BD19">
-        <v>0.01379492352963511</v>
+        <v>0.002362349273033657</v>
       </c>
       <c r="BE19">
         <v>2</v>
@@ -4237,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="BJ19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL19" s="1" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="BM19">
-        <v>0.01605788487343909</v>
+        <v>0.02302974279798854</v>
       </c>
       <c r="BN19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP19">
         <v>1</v>
@@ -4269,7 +4173,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.00128636245243424</v>
+        <v>0.001287038579560079</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -4287,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="K20">
-        <v>0.001296436412088031</v>
+        <v>0.01349279520024998</v>
       </c>
       <c r="L20">
         <v>2</v>
@@ -4311,13 +4215,13 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="S20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="T20">
-        <v>0.00151838491436876</v>
+        <v>0.001500887127449122</v>
       </c>
       <c r="U20">
         <v>2</v>
@@ -4335,13 +4239,13 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="AC20">
-        <v>0.01256581557804471</v>
+        <v>0.01976798380921312</v>
       </c>
       <c r="AD20">
         <v>2</v>
@@ -4359,13 +4263,13 @@
         <v>0</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AK20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="AL20">
-        <v>0.01244117595281614</v>
+        <v>0.001813435005133107</v>
       </c>
       <c r="AM20">
         <v>2</v>
@@ -4383,13 +4287,13 @@
         <v>0</v>
       </c>
       <c r="AR20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="AU20">
-        <v>0.01487666760655072</v>
+        <v>0.02168378732111682</v>
       </c>
       <c r="AV20">
         <v>2</v>
@@ -4407,13 +4311,13 @@
         <v>0</v>
       </c>
       <c r="BA20">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="BC20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="BD20">
-        <v>0.01379492352963511</v>
+        <v>0.002313511609427483</v>
       </c>
       <c r="BE20">
         <v>2</v>
@@ -4431,19 +4335,19 @@
         <v>0</v>
       </c>
       <c r="BJ20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL20" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="BM20">
-        <v>0.01585201455454884</v>
+        <v>0.02297763930749536</v>
       </c>
       <c r="BN20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP20">
         <v>1</v>
@@ -4455,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="BS20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:71">
@@ -4463,7 +4367,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.00128636245243424</v>
+        <v>0.001287038579560079</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -4481,19 +4385,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="K21">
-        <v>0.001291288062391526</v>
+        <v>0.01016355472963597</v>
       </c>
       <c r="L21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -4505,13 +4409,13 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="T21">
-        <v>0.00151838491436876</v>
+        <v>0.001500887127449122</v>
       </c>
       <c r="U21">
         <v>2</v>
@@ -4529,19 +4433,19 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="AC21">
-        <v>0.01240471537832618</v>
+        <v>0.01901735326528568</v>
       </c>
       <c r="AD21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF21">
         <v>1</v>
@@ -4553,13 +4457,13 @@
         <v>0</v>
       </c>
       <c r="AI21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AL21">
-        <v>0.01244117595281614</v>
+        <v>0.001813435005133107</v>
       </c>
       <c r="AM21">
         <v>2</v>
@@ -4577,19 +4481,19 @@
         <v>0</v>
       </c>
       <c r="AR21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AU21">
-        <v>0.01468594109877443</v>
+        <v>0.02167126045310962</v>
       </c>
       <c r="AV21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX21">
         <v>1</v>
@@ -4601,13 +4505,13 @@
         <v>0</v>
       </c>
       <c r="BA21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="BD21">
-        <v>0.01379492352963511</v>
+        <v>0.002313511609427483</v>
       </c>
       <c r="BE21">
         <v>2</v>
@@ -4625,19 +4529,19 @@
         <v>0</v>
       </c>
       <c r="BJ21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL21" s="1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="BM21">
-        <v>0.01574907939510372</v>
+        <v>0.02292553581700217</v>
       </c>
       <c r="BN21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP21">
         <v>1</v>
@@ -4649,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="BS21">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:71">
@@ -4657,7 +4561,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.00128636245243424</v>
+        <v>0.001284468176212386</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -4675,19 +4579,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="K22">
-        <v>0.001288713887543274</v>
+        <v>0.01014056026192186</v>
       </c>
       <c r="L22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -4699,13 +4603,13 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T22">
-        <v>0.00151838491436876</v>
+        <v>0.001488677711547578</v>
       </c>
       <c r="U22">
         <v>2</v>
@@ -4723,19 +4627,19 @@
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="AC22">
-        <v>0.01232416527846692</v>
+        <v>0.01897432757916512</v>
       </c>
       <c r="AD22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF22">
         <v>1</v>
@@ -4747,13 +4651,13 @@
         <v>0</v>
       </c>
       <c r="AI22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="AL22">
-        <v>0.01244117595281614</v>
+        <v>0.00178713780165286</v>
       </c>
       <c r="AM22">
         <v>2</v>
@@ -4771,19 +4675,19 @@
         <v>0</v>
       </c>
       <c r="AR22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AT22" s="1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="AU22">
-        <v>0.01459057784488629</v>
+        <v>0.02162211927294384</v>
       </c>
       <c r="AV22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX22">
         <v>1</v>
@@ -4795,13 +4699,13 @@
         <v>0</v>
       </c>
       <c r="BA22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="BD22">
-        <v>0.01379492352963511</v>
+        <v>0.00226467394582131</v>
       </c>
       <c r="BE22">
         <v>2</v>
@@ -4819,19 +4723,19 @@
         <v>0</v>
       </c>
       <c r="BJ22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BL22" s="1" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="BM22">
-        <v>0.01564614423565859</v>
+        <v>0.02292553581700217</v>
       </c>
       <c r="BN22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP22">
         <v>1</v>
@@ -4843,7 +4747,7 @@
         <v>0</v>
       </c>
       <c r="BS22">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:71">
@@ -4851,7 +4755,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.00128636245243424</v>
+        <v>0.001276756966169306</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -4869,19 +4773,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="K23">
-        <v>0.001286139712695022</v>
+        <v>0.01011756579420776</v>
       </c>
       <c r="L23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -4893,13 +4797,13 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="T23">
-        <v>0.00151838491436876</v>
+        <v>0.001452049463842949</v>
       </c>
       <c r="U23">
         <v>2</v>
@@ -4917,19 +4821,19 @@
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="AC23">
-        <v>0.01224361517860766</v>
+        <v>0.01893130189304457</v>
       </c>
       <c r="AD23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF23">
         <v>1</v>
@@ -4941,13 +4845,13 @@
         <v>0</v>
       </c>
       <c r="AI23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AK23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AL23">
-        <v>0.01244117595281614</v>
+        <v>0.001708246191212119</v>
       </c>
       <c r="AM23">
         <v>2</v>
@@ -4965,19 +4869,19 @@
         <v>0</v>
       </c>
       <c r="AR23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AT23" s="1" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="AU23">
-        <v>0.01449521459099814</v>
+        <v>0.02162211927294384</v>
       </c>
       <c r="AV23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX23">
         <v>1</v>
@@ -4989,13 +4893,13 @@
         <v>0</v>
       </c>
       <c r="BA23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BC23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="BD23">
-        <v>0.01379492352963511</v>
+        <v>0.002118160955002791</v>
       </c>
       <c r="BE23">
         <v>2</v>
@@ -5013,13 +4917,13 @@
         <v>0</v>
       </c>
       <c r="BJ23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BL23" s="1" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="BM23">
-        <v>0.01432640624734697</v>
+        <v>0.02292553581700217</v>
       </c>
       <c r="BN23">
         <v>1</v>
@@ -5037,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="BS23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:71">
@@ -5045,7 +4949,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.001283788277585987</v>
+        <v>0.001258764142735453</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -5063,19 +4967,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="K24">
-        <v>0.001250101264819488</v>
+        <v>0.01011756579420776</v>
       </c>
       <c r="L24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -5087,13 +4991,13 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="S24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="T24">
-        <v>0.001506157583839561</v>
+        <v>0.001366583552532146</v>
       </c>
       <c r="U24">
         <v>2</v>
@@ -5111,19 +5015,19 @@
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="AC24">
-        <v>0.01111591378057801</v>
+        <v>0.01893130189304457</v>
       </c>
       <c r="AD24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF24">
         <v>1</v>
@@ -5135,13 +5039,13 @@
         <v>0</v>
       </c>
       <c r="AI24">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="AK24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="AL24">
-        <v>0.01232136924190785</v>
+        <v>0.00152416576685039</v>
       </c>
       <c r="AM24">
         <v>2</v>
@@ -5159,19 +5063,19 @@
         <v>0</v>
       </c>
       <c r="AR24">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AT24" s="1" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="AU24">
-        <v>0.0131601290365641</v>
+        <v>0.02162211927294384</v>
       </c>
       <c r="AV24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX24">
         <v>1</v>
@@ -5183,13 +5087,13 @@
         <v>0</v>
       </c>
       <c r="BA24">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="BC24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="BD24">
-        <v>0.01365225276554174</v>
+        <v>0.00177629730975958</v>
       </c>
       <c r="BE24">
         <v>2</v>
@@ -5207,13 +5111,13 @@
         <v>0</v>
       </c>
       <c r="BJ24">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="BL24" s="1" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="BM24">
-        <v>0.01432640624734697</v>
+        <v>0.02287343232650898</v>
       </c>
       <c r="BN24">
         <v>1</v>
@@ -5231,7 +5135,7 @@
         <v>0</v>
       </c>
       <c r="BS24">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:71">
@@ -5239,13 +5143,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.001283788277585987</v>
+        <v>0.0008605961230544127</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -5257,19 +5161,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="K25">
-        <v>0.001232082040881721</v>
+        <v>0.01011756579420776</v>
       </c>
       <c r="L25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -5281,19 +5185,19 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="S25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="T25">
-        <v>0.001506157583839561</v>
+        <v>0.001012800834200958</v>
       </c>
       <c r="U25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W25">
         <v>0</v>
@@ -5305,19 +5209,19 @@
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="AC25">
-        <v>0.01055206308156318</v>
+        <v>0.01893130189304457</v>
       </c>
       <c r="AD25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF25">
         <v>1</v>
@@ -5329,19 +5233,19 @@
         <v>0</v>
       </c>
       <c r="AI25">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="AK25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="AL25">
-        <v>0.01232136924190785</v>
+        <v>0.001235253873568985</v>
       </c>
       <c r="AM25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO25">
         <v>0</v>
@@ -5353,13 +5257,13 @@
         <v>0</v>
       </c>
       <c r="AR25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="AU25">
-        <v>0.01258508026565982</v>
+        <v>0.02157297809277806</v>
       </c>
       <c r="AV25">
         <v>1</v>
@@ -5377,19 +5281,19 @@
         <v>0</v>
       </c>
       <c r="BA25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="BD25">
-        <v>0.01365225276554174</v>
+        <v>0.001591178736557829</v>
       </c>
       <c r="BE25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG25">
         <v>0</v>
@@ -5401,13 +5305,13 @@
         <v>0</v>
       </c>
       <c r="BJ25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL25" s="1" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="BM25">
-        <v>0.01432640624734697</v>
+        <v>0.02287343232650898</v>
       </c>
       <c r="BN25">
         <v>1</v>
@@ -5425,7 +5329,7 @@
         <v>0</v>
       </c>
       <c r="BS25">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:71">
@@ -5433,13 +5337,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.001281214102737735</v>
+        <v>0.0008605961230544127</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -5451,19 +5355,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="K26">
-        <v>0.0008948651357606575</v>
+        <v>0.01009457132649365</v>
       </c>
       <c r="L26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -5475,19 +5379,19 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>156</v>
+        <v>3</v>
       </c>
       <c r="S26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="T26">
-        <v>0.001493930253310363</v>
+        <v>0.001012800834200958</v>
       </c>
       <c r="U26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W26">
         <v>0</v>
@@ -5499,13 +5403,13 @@
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="AC26">
-        <v>0.00917847016109191</v>
+        <v>0.01888827620692402</v>
       </c>
       <c r="AD26">
         <v>1</v>
@@ -5523,19 +5427,19 @@
         <v>0</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="AL26">
-        <v>0.01220156253099956</v>
+        <v>0.001235253873568985</v>
       </c>
       <c r="AM26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO26">
         <v>0</v>
@@ -5547,13 +5451,13 @@
         <v>0</v>
       </c>
       <c r="AR26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="AU26">
-        <v>0.01258508026565982</v>
+        <v>0.02157297809277806</v>
       </c>
       <c r="AV26">
         <v>1</v>
@@ -5571,19 +5475,19 @@
         <v>0</v>
       </c>
       <c r="BA26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="BD26">
-        <v>0.01350958200144837</v>
+        <v>0.001591178736557829</v>
       </c>
       <c r="BE26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG26">
         <v>0</v>
@@ -5595,13 +5499,13 @@
         <v>0</v>
       </c>
       <c r="BJ26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BL26" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="BM26">
-        <v>0.01432640624734697</v>
+        <v>0.0228213288360158</v>
       </c>
       <c r="BN26">
         <v>1</v>
@@ -5619,7 +5523,7 @@
         <v>0</v>
       </c>
       <c r="BS26">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:71">
@@ -5627,13 +5531,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.001278639927889483</v>
+        <v>0.0008605961230544127</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -5645,13 +5549,13 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="K27">
-        <v>0.00086343288310927</v>
+        <v>0.01009457132649365</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -5669,19 +5573,19 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="T27">
-        <v>0.001481702922781163</v>
+        <v>0.001012800834200958</v>
       </c>
       <c r="U27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W27">
         <v>0</v>
@@ -5693,13 +5597,13 @@
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="AC27">
-        <v>0.00917847016109191</v>
+        <v>0.01888827620692402</v>
       </c>
       <c r="AD27">
         <v>1</v>
@@ -5717,19 +5621,19 @@
         <v>0</v>
       </c>
       <c r="AI27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="AL27">
-        <v>0.01208175582009126</v>
+        <v>0.001235253873568985</v>
       </c>
       <c r="AM27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO27">
         <v>0</v>
@@ -5741,13 +5645,13 @@
         <v>0</v>
       </c>
       <c r="AR27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AT27" s="1" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="AU27">
-        <v>0.01258508026565982</v>
+        <v>0.02152383691261228</v>
       </c>
       <c r="AV27">
         <v>1</v>
@@ -5765,19 +5669,19 @@
         <v>0</v>
       </c>
       <c r="BA27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BC27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="BD27">
-        <v>0.01336691123735501</v>
+        <v>0.001591178736557829</v>
       </c>
       <c r="BE27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG27">
         <v>0</v>
@@ -5789,13 +5693,13 @@
         <v>0</v>
       </c>
       <c r="BJ27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BL27" s="1" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="BM27">
-        <v>0.01432640624734697</v>
+        <v>0.02276922534552261</v>
       </c>
       <c r="BN27">
         <v>1</v>
@@ -5813,7 +5717,7 @@
         <v>0</v>
       </c>
       <c r="BS27">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:71">
@@ -5821,7 +5725,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.0008567169100067423</v>
+        <v>0.0008605961230544127</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -5842,10 +5746,10 @@
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="K28">
-        <v>0.00086343288310927</v>
+        <v>0.01007157685877954</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -5863,13 +5767,13 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="T28">
-        <v>0.001008180832736107</v>
+        <v>0.001012800834200958</v>
       </c>
       <c r="U28">
         <v>1</v>
@@ -5890,10 +5794,10 @@
         <v>0</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="AC28">
-        <v>0.00917847016109191</v>
+        <v>0.01884525052080346</v>
       </c>
       <c r="AD28">
         <v>1</v>
@@ -5911,13 +5815,13 @@
         <v>0</v>
       </c>
       <c r="AI28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AL28">
-        <v>0.009584536872663424</v>
+        <v>0.001235253873568985</v>
       </c>
       <c r="AM28">
         <v>1</v>
@@ -5938,10 +5842,10 @@
         <v>0</v>
       </c>
       <c r="AT28" s="1" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="AU28">
-        <v>0.01258508026565982</v>
+        <v>0.02147469573244649</v>
       </c>
       <c r="AV28">
         <v>1</v>
@@ -5959,13 +5863,13 @@
         <v>0</v>
       </c>
       <c r="BA28">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BC28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="BD28">
-        <v>0.0114136611274694</v>
+        <v>0.001591178736557829</v>
       </c>
       <c r="BE28">
         <v>1</v>
@@ -5986,10 +5890,10 @@
         <v>0</v>
       </c>
       <c r="BL28" s="1" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="BM28">
-        <v>0.01432640624734697</v>
+        <v>0.02271712185502942</v>
       </c>
       <c r="BN28">
         <v>1</v>
@@ -6007,7 +5911,7 @@
         <v>0</v>
       </c>
       <c r="BS28">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:71">
@@ -6015,7 +5919,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.0008567169100067423</v>
+        <v>0.0008580257197067195</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -6033,13 +5937,13 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="K29">
-        <v>0.00086343288310927</v>
+        <v>0.01004858239106543</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -6057,13 +5961,13 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="T29">
-        <v>0.001008180832736107</v>
+        <v>0.001000591418299414</v>
       </c>
       <c r="U29">
         <v>1</v>
@@ -6081,13 +5985,13 @@
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB29" s="1" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="AC29">
-        <v>0.00917847016109191</v>
+        <v>0.0188022248346829</v>
       </c>
       <c r="AD29">
         <v>1</v>
@@ -6105,13 +6009,13 @@
         <v>0</v>
       </c>
       <c r="AI29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AK29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AL29">
-        <v>0.009584536872663424</v>
+        <v>0.001208956670088738</v>
       </c>
       <c r="AM29">
         <v>1</v>
@@ -6129,13 +6033,13 @@
         <v>0</v>
       </c>
       <c r="AR29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT29" s="1" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="AU29">
-        <v>0.01258508026565982</v>
+        <v>0.02142555455228071</v>
       </c>
       <c r="AV29">
         <v>1</v>
@@ -6153,13 +6057,13 @@
         <v>0</v>
       </c>
       <c r="BA29">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BC29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="BD29">
-        <v>0.0114136611274694</v>
+        <v>0.001542341072951655</v>
       </c>
       <c r="BE29">
         <v>1</v>
@@ -6177,19 +6081,19 @@
         <v>0</v>
       </c>
       <c r="BJ29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL29" s="1" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="BM29">
-        <v>0.01432640624734697</v>
+        <v>0.02261179158154485</v>
       </c>
       <c r="BN29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP29">
         <v>1</v>
@@ -6201,7 +6105,7 @@
         <v>0</v>
       </c>
       <c r="BS29">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:71">
@@ -6209,7 +6113,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.0008567169100067423</v>
+        <v>0.0008580257197067195</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -6227,13 +6131,13 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K30">
-        <v>0.00086343288310927</v>
+        <v>0.01002558792335132</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -6251,13 +6155,13 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="T30">
-        <v>0.001008180832736107</v>
+        <v>0.001000591418299414</v>
       </c>
       <c r="U30">
         <v>1</v>
@@ -6275,13 +6179,13 @@
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB30" s="1" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="AC30">
-        <v>0.00917847016109191</v>
+        <v>0.01875919914856235</v>
       </c>
       <c r="AD30">
         <v>1</v>
@@ -6299,13 +6203,13 @@
         <v>0</v>
       </c>
       <c r="AI30">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AK30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="AL30">
-        <v>0.009584536872663424</v>
+        <v>0.001208956670088738</v>
       </c>
       <c r="AM30">
         <v>1</v>
@@ -6323,13 +6227,13 @@
         <v>0</v>
       </c>
       <c r="AR30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT30" s="1" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="AU30">
-        <v>0.01258508026565982</v>
+        <v>0.02122898983161759</v>
       </c>
       <c r="AV30">
         <v>1</v>
@@ -6347,13 +6251,13 @@
         <v>0</v>
       </c>
       <c r="BA30">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BC30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="BD30">
-        <v>0.0114136611274694</v>
+        <v>0.001542341072951655</v>
       </c>
       <c r="BE30">
         <v>1</v>
@@ -6371,13 +6275,13 @@
         <v>0</v>
       </c>
       <c r="BJ30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL30" s="1" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="BM30">
-        <v>0.01432640624734697</v>
+        <v>0.02250870789305668</v>
       </c>
       <c r="BN30">
         <v>1</v>
@@ -6395,7 +6299,7 @@
         <v>0</v>
       </c>
       <c r="BS30">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:71">
@@ -6403,7 +6307,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.0008567169100067423</v>
+        <v>0.0008580257197067195</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -6421,13 +6325,13 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="K31">
-        <v>0.00086343288310927</v>
+        <v>0.009933610052494886</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -6445,13 +6349,13 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="T31">
-        <v>0.001008180832736107</v>
+        <v>0.001000591418299414</v>
       </c>
       <c r="U31">
         <v>1</v>
@@ -6469,13 +6373,13 @@
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB31" s="1" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="AC31">
-        <v>0.00917847016109191</v>
+        <v>0.01858709640408012</v>
       </c>
       <c r="AD31">
         <v>1</v>
@@ -6493,13 +6397,13 @@
         <v>0</v>
       </c>
       <c r="AI31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AL31">
-        <v>0.009584536872663424</v>
+        <v>0.001208956670088738</v>
       </c>
       <c r="AM31">
         <v>1</v>
@@ -6517,13 +6421,13 @@
         <v>0</v>
       </c>
       <c r="AR31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT31" s="1" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="AU31">
-        <v>0.01258508026565982</v>
+        <v>0.02098328393078868</v>
       </c>
       <c r="AV31">
         <v>1</v>
@@ -6541,13 +6445,13 @@
         <v>0</v>
       </c>
       <c r="BA31">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="BC31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="BD31">
-        <v>0.0114136611274694</v>
+        <v>0.001542341072951655</v>
       </c>
       <c r="BE31">
         <v>1</v>
@@ -6565,13 +6469,13 @@
         <v>0</v>
       </c>
       <c r="BJ31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL31" s="1" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="BM31">
-        <v>0.01432640624734697</v>
+        <v>0.02224819044059074</v>
       </c>
       <c r="BN31">
         <v>1</v>
@@ -6589,7 +6493,7 @@
         <v>0</v>
       </c>
       <c r="BS31">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:71">
@@ -6597,7 +6501,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.0008567169100067423</v>
+        <v>0.0008580257197067195</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -6615,13 +6519,13 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="K32">
-        <v>0.00086343288310927</v>
+        <v>0.009818637713924345</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -6639,13 +6543,13 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="S32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="T32">
-        <v>0.001008180832736107</v>
+        <v>0.001000591418299414</v>
       </c>
       <c r="U32">
         <v>1</v>
@@ -6663,13 +6567,13 @@
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB32" s="1" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="AC32">
-        <v>0.00917847016109191</v>
+        <v>0.01837196797347734</v>
       </c>
       <c r="AD32">
         <v>1</v>
@@ -6687,13 +6591,13 @@
         <v>0</v>
       </c>
       <c r="AI32">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AK32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="AL32">
-        <v>0.009584536872663424</v>
+        <v>0.001208956670088738</v>
       </c>
       <c r="AM32">
         <v>1</v>
@@ -6711,13 +6615,13 @@
         <v>0</v>
       </c>
       <c r="AR32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT32" s="1" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="AU32">
-        <v>0.01258508026565982</v>
+        <v>0.0209341427506229</v>
       </c>
       <c r="AV32">
         <v>1</v>
@@ -6735,13 +6639,13 @@
         <v>0</v>
       </c>
       <c r="BA32">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="BC32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="BD32">
-        <v>0.0114136611274694</v>
+        <v>0.001542341072951655</v>
       </c>
       <c r="BE32">
         <v>1</v>
@@ -6759,13 +6663,13 @@
         <v>0</v>
       </c>
       <c r="BJ32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL32" s="1" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="BM32">
-        <v>0.01432640624734697</v>
+        <v>0.02219608695009756</v>
       </c>
       <c r="BN32">
         <v>1</v>
@@ -6783,7 +6687,7 @@
         <v>0</v>
       </c>
       <c r="BS32">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:71">
@@ -6791,7 +6695,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.0008567169100067423</v>
+        <v>0.0008580257197067195</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -6809,13 +6713,13 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="K33">
-        <v>0.00086343288310927</v>
+        <v>0.009795643246210236</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -6833,13 +6737,13 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="S33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="T33">
-        <v>0.001008180832736107</v>
+        <v>0.001000591418299414</v>
       </c>
       <c r="U33">
         <v>1</v>
@@ -6857,13 +6761,13 @@
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB33" s="1" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="AC33">
-        <v>0.00917847016109191</v>
+        <v>0.01832894228735679</v>
       </c>
       <c r="AD33">
         <v>1</v>
@@ -6881,13 +6785,13 @@
         <v>0</v>
       </c>
       <c r="AI33">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AK33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="AL33">
-        <v>0.009584536872663424</v>
+        <v>0.001208956670088738</v>
       </c>
       <c r="AM33">
         <v>1</v>
@@ -6905,13 +6809,13 @@
         <v>0</v>
       </c>
       <c r="AR33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT33" s="1" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="AU33">
-        <v>0.01258508026565982</v>
+        <v>0.0209341427506229</v>
       </c>
       <c r="AV33">
         <v>1</v>
@@ -6929,13 +6833,13 @@
         <v>0</v>
       </c>
       <c r="BA33">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="BC33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="BD33">
-        <v>0.0114136611274694</v>
+        <v>0.001542341072951655</v>
       </c>
       <c r="BE33">
         <v>1</v>
@@ -6953,13 +6857,13 @@
         <v>0</v>
       </c>
       <c r="BJ33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL33" s="1" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="BM33">
-        <v>0.01432640624734697</v>
+        <v>0.02219608695009756</v>
       </c>
       <c r="BN33">
         <v>1</v>
@@ -6977,7 +6881,7 @@
         <v>0</v>
       </c>
       <c r="BS33">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:71">
@@ -6985,7 +6889,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.0008567169100067423</v>
+        <v>0.0008554553163590261</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -7003,13 +6907,13 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="K34">
-        <v>0.00086343288310927</v>
+        <v>0.009795643246210236</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -7027,13 +6931,13 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="S34" s="1" t="s">
         <v>39</v>
       </c>
       <c r="T34">
-        <v>0.001008180832736107</v>
+        <v>0.0009883820023978711</v>
       </c>
       <c r="U34">
         <v>1</v>
@@ -7051,13 +6955,13 @@
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB34" s="1" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="AC34">
-        <v>0.00917847016109191</v>
+        <v>0.01832894228735679</v>
       </c>
       <c r="AD34">
         <v>1</v>
@@ -7075,13 +6979,13 @@
         <v>0</v>
       </c>
       <c r="AI34">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AK34" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AL34">
-        <v>0.009584536872663424</v>
+        <v>0.001182659466608491</v>
       </c>
       <c r="AM34">
         <v>1</v>
@@ -7099,13 +7003,13 @@
         <v>0</v>
       </c>
       <c r="AR34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT34" s="1" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="AU34">
-        <v>0.01258508026565982</v>
+        <v>0.02078671921012555</v>
       </c>
       <c r="AV34">
         <v>1</v>
@@ -7123,13 +7027,13 @@
         <v>0</v>
       </c>
       <c r="BA34">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="BC34" s="1" t="s">
         <v>39</v>
       </c>
       <c r="BD34">
-        <v>0.0114136611274694</v>
+        <v>0.001493503409345482</v>
       </c>
       <c r="BE34">
         <v>1</v>
@@ -7147,13 +7051,13 @@
         <v>0</v>
       </c>
       <c r="BJ34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL34" s="1" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="BM34">
-        <v>0.01432640624734697</v>
+        <v>0.022039776478618</v>
       </c>
       <c r="BN34">
         <v>1</v>
@@ -7171,7 +7075,7 @@
         <v>0</v>
       </c>
       <c r="BS34">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:71">
@@ -7179,7 +7083,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.00085414273515849</v>
+        <v>0.0008528849130113329</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -7197,13 +7101,13 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="K35">
-        <v>0.00086343288310927</v>
+        <v>0.009726659843067909</v>
       </c>
       <c r="L35">
         <v>1</v>
@@ -7221,13 +7125,13 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="S35" s="1" t="s">
         <v>40</v>
       </c>
       <c r="T35">
-        <v>0.0009959535022069084</v>
+        <v>0.0009761725864963278</v>
       </c>
       <c r="U35">
         <v>1</v>
@@ -7245,13 +7149,13 @@
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB35" s="1" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="AC35">
-        <v>0.00917847016109191</v>
+        <v>0.01819986522899512</v>
       </c>
       <c r="AD35">
         <v>1</v>
@@ -7269,13 +7173,13 @@
         <v>0</v>
       </c>
       <c r="AI35">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AK35" s="1" t="s">
         <v>40</v>
       </c>
       <c r="AL35">
-        <v>0.009464730161755129</v>
+        <v>0.001156362263128244</v>
       </c>
       <c r="AM35">
         <v>1</v>
@@ -7293,13 +7197,13 @@
         <v>0</v>
       </c>
       <c r="AR35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT35" s="1" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="AU35">
-        <v>0.01258508026565982</v>
+        <v>0.02019702504813618</v>
       </c>
       <c r="AV35">
         <v>1</v>
@@ -7317,13 +7221,13 @@
         <v>0</v>
       </c>
       <c r="BA35">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BC35" s="1" t="s">
         <v>40</v>
       </c>
       <c r="BD35">
-        <v>0.01127099036337603</v>
+        <v>0.001444665745739309</v>
       </c>
       <c r="BE35">
         <v>1</v>
@@ -7341,13 +7245,13 @@
         <v>0</v>
       </c>
       <c r="BJ35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BL35" s="1" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="BM35">
-        <v>0.01432640624734697</v>
+        <v>0.02141453459269975</v>
       </c>
       <c r="BN35">
         <v>1</v>
@@ -7365,7 +7269,7 @@
         <v>0</v>
       </c>
       <c r="BS35">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:71">
@@ -7373,7 +7277,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.00085414273515849</v>
+        <v>0.0008426032996205595</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -7391,13 +7295,13 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="K36">
-        <v>0.00086343288310927</v>
+        <v>0.009450726230498608</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -7415,13 +7319,13 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="S36" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T36">
-        <v>0.0009959535022069084</v>
+        <v>0.0009273349228901547</v>
       </c>
       <c r="U36">
         <v>1</v>
@@ -7439,13 +7343,13 @@
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AB36" s="1" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="AC36">
-        <v>0.00917847016109191</v>
+        <v>0.01768355699554845</v>
       </c>
       <c r="AD36">
         <v>1</v>
@@ -7463,13 +7367,13 @@
         <v>0</v>
       </c>
       <c r="AI36">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AK36" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AL36">
-        <v>0.009464730161755129</v>
+        <v>0.001051173449207256</v>
       </c>
       <c r="AM36">
         <v>1</v>
@@ -7487,13 +7391,13 @@
         <v>0</v>
       </c>
       <c r="AR36">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AT36" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AU36">
-        <v>0.01258508026565982</v>
+        <v>0.01985303678697571</v>
       </c>
       <c r="AV36">
         <v>1</v>
@@ -7511,13 +7415,13 @@
         <v>0</v>
       </c>
       <c r="BA36">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="BC36" s="1" t="s">
         <v>41</v>
       </c>
       <c r="BD36">
-        <v>0.01127099036337603</v>
+        <v>0.001249315091314617</v>
       </c>
       <c r="BE36">
         <v>1</v>
@@ -7535,13 +7439,13 @@
         <v>0</v>
       </c>
       <c r="BJ36">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BL36" s="1" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="BM36">
-        <v>0.01432640624734697</v>
+        <v>0.02104981015924745</v>
       </c>
       <c r="BN36">
         <v>1</v>
@@ -7559,39 +7463,15 @@
         <v>0</v>
       </c>
       <c r="BS36">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:71">
-      <c r="A37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37">
-        <v>0.00085414273515849</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
       <c r="J37" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="K37">
-        <v>0.00086343288310927</v>
+        <v>0.009289764956499847</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -7609,37 +7489,13 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T37">
-        <v>0.0009959535022069084</v>
-      </c>
-      <c r="U37">
-        <v>1</v>
-      </c>
-      <c r="V37">
-        <v>1</v>
-      </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-      <c r="X37">
-        <v>1</v>
-      </c>
-      <c r="Y37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z37">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="AB37" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AC37">
-        <v>0.00917847016109191</v>
+        <v>0.01738237719270456</v>
       </c>
       <c r="AD37">
         <v>1</v>
@@ -7657,43 +7513,19 @@
         <v>0</v>
       </c>
       <c r="AI37">
-        <v>0</v>
-      </c>
-      <c r="AK37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL37">
-        <v>0.009464730161755129</v>
-      </c>
-      <c r="AM37">
-        <v>1</v>
-      </c>
-      <c r="AN37">
-        <v>1</v>
-      </c>
-      <c r="AO37">
-        <v>0</v>
-      </c>
-      <c r="AP37">
-        <v>1</v>
-      </c>
-      <c r="AQ37" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR37">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="AT37" s="1" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="AU37">
-        <v>0.01258508026565982</v>
+        <v>0.01983088192655034</v>
       </c>
       <c r="AV37">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AW37">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AX37">
         <v>1</v>
@@ -7705,37 +7537,13 @@
         <v>0</v>
       </c>
       <c r="BA37">
-        <v>0</v>
-      </c>
-      <c r="BC37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="BD37">
-        <v>0.01127099036337603</v>
-      </c>
-      <c r="BE37">
-        <v>1</v>
-      </c>
-      <c r="BF37">
-        <v>1</v>
-      </c>
-      <c r="BG37">
-        <v>0</v>
-      </c>
-      <c r="BH37">
-        <v>1</v>
-      </c>
-      <c r="BI37" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ37">
-        <v>1</v>
+        <v>281</v>
       </c>
       <c r="BL37" s="1" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="BM37">
-        <v>0.01432640624734697</v>
+        <v>0.01854884261557448</v>
       </c>
       <c r="BN37">
         <v>1</v>
@@ -7753,39 +7561,15 @@
         <v>0</v>
       </c>
       <c r="BS37">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:71">
-      <c r="A38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38">
-        <v>0.00085414273515849</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
       <c r="J38" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="K38">
-        <v>0.00086343288310927</v>
+        <v>0.008186030506222639</v>
       </c>
       <c r="L38">
         <v>1</v>
@@ -7803,37 +7587,13 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="S38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T38">
-        <v>0.0009959535022069084</v>
-      </c>
-      <c r="U38">
-        <v>1</v>
-      </c>
-      <c r="V38">
-        <v>1</v>
-      </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-      <c r="X38">
-        <v>1</v>
-      </c>
-      <c r="Y38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z38">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="AB38" s="1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AC38">
-        <v>0.00917847016109191</v>
+        <v>0.01531714425891788</v>
       </c>
       <c r="AD38">
         <v>1</v>
@@ -7851,37 +7611,13 @@
         <v>0</v>
       </c>
       <c r="AI38">
-        <v>0</v>
-      </c>
-      <c r="AK38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL38">
-        <v>0.009464730161755129</v>
-      </c>
-      <c r="AM38">
-        <v>1</v>
-      </c>
-      <c r="AN38">
-        <v>1</v>
-      </c>
-      <c r="AO38">
-        <v>0</v>
-      </c>
-      <c r="AP38">
-        <v>1</v>
-      </c>
-      <c r="AQ38" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR38">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="AT38" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AU38">
-        <v>0.01258508026565982</v>
+        <v>0.0174942601390182</v>
       </c>
       <c r="AV38">
         <v>1</v>
@@ -7899,87 +7635,39 @@
         <v>0</v>
       </c>
       <c r="BA38">
-        <v>0</v>
-      </c>
-      <c r="BC38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="BD38">
-        <v>0.01127099036337603</v>
-      </c>
-      <c r="BE38">
-        <v>1</v>
-      </c>
-      <c r="BF38">
-        <v>1</v>
-      </c>
-      <c r="BG38">
-        <v>0</v>
-      </c>
-      <c r="BH38">
-        <v>1</v>
-      </c>
-      <c r="BI38" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ38">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="BL38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM38">
+        <v>0.01787149723916305</v>
+      </c>
+      <c r="BN38">
+        <v>1</v>
+      </c>
+      <c r="BO38">
+        <v>1</v>
+      </c>
+      <c r="BP38">
+        <v>1</v>
+      </c>
+      <c r="BQ38">
+        <v>0</v>
+      </c>
+      <c r="BR38" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS38">
         <v>99</v>
-      </c>
-      <c r="BM38">
-        <v>0.01422347108790184</v>
-      </c>
-      <c r="BN38">
-        <v>1</v>
-      </c>
-      <c r="BO38">
-        <v>1</v>
-      </c>
-      <c r="BP38">
-        <v>1</v>
-      </c>
-      <c r="BQ38">
-        <v>0</v>
-      </c>
-      <c r="BR38" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS38">
-        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:71">
-      <c r="A39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39">
-        <v>0.00085414273515849</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
       <c r="J39" s="1" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="K39">
-        <v>0.00086343288310927</v>
+        <v>0.007887102425939227</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -7997,37 +7685,13 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="S39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T39">
-        <v>0.0009959535022069084</v>
-      </c>
-      <c r="U39">
-        <v>1</v>
-      </c>
-      <c r="V39">
-        <v>1</v>
-      </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-      <c r="X39">
-        <v>1</v>
-      </c>
-      <c r="Y39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z39">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="AB39" s="1" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="AC39">
-        <v>0.00917847016109191</v>
+        <v>0.01475781033935065</v>
       </c>
       <c r="AD39">
         <v>1</v>
@@ -8045,37 +7709,13 @@
         <v>0</v>
       </c>
       <c r="AI39">
-        <v>0</v>
-      </c>
-      <c r="AK39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AL39">
-        <v>0.009464730161755129</v>
-      </c>
-      <c r="AM39">
-        <v>1</v>
-      </c>
-      <c r="AN39">
-        <v>1</v>
-      </c>
-      <c r="AO39">
-        <v>0</v>
-      </c>
-      <c r="AP39">
-        <v>1</v>
-      </c>
-      <c r="AQ39" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR39">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="AT39" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AU39">
-        <v>0.01258508026565982</v>
+        <v>0.01685542479686304</v>
       </c>
       <c r="AV39">
         <v>1</v>
@@ -8093,43 +7733,19 @@
         <v>0</v>
       </c>
       <c r="BA39">
-        <v>0</v>
-      </c>
-      <c r="BC39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="BD39">
-        <v>0.01127099036337603</v>
-      </c>
-      <c r="BE39">
-        <v>1</v>
-      </c>
-      <c r="BF39">
-        <v>1</v>
-      </c>
-      <c r="BG39">
-        <v>0</v>
-      </c>
-      <c r="BH39">
-        <v>1</v>
-      </c>
-      <c r="BI39" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ39">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="BL39" s="1" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="BM39">
-        <v>0.01422347108790184</v>
+        <v>0.01723502242826287</v>
       </c>
       <c r="BN39">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="BO39">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="BP39">
         <v>1</v>
@@ -8141,39 +7757,15 @@
         <v>0</v>
       </c>
       <c r="BS39">
-        <v>1</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40" spans="1:71">
-      <c r="A40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40">
-        <v>0.00085414273515849</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
       <c r="J40" s="1" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="K40">
-        <v>0.00086343288310927</v>
+        <v>0.00657641776623504</v>
       </c>
       <c r="L40">
         <v>1</v>
@@ -8191,37 +7783,13 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>0</v>
-      </c>
-      <c r="S40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="T40">
-        <v>0.0009959535022069084</v>
-      </c>
-      <c r="U40">
-        <v>1</v>
-      </c>
-      <c r="V40">
-        <v>1</v>
-      </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
-      <c r="X40">
-        <v>1</v>
-      </c>
-      <c r="Y40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z40">
-        <v>1</v>
+        <v>156</v>
       </c>
       <c r="AB40" s="1" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="AC40">
-        <v>0.00917847016109191</v>
+        <v>0.01230534623047897</v>
       </c>
       <c r="AD40">
         <v>1</v>
@@ -8239,43 +7807,19 @@
         <v>0</v>
       </c>
       <c r="AI40">
-        <v>0</v>
-      </c>
-      <c r="AK40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL40">
-        <v>0.009464730161755129</v>
-      </c>
-      <c r="AM40">
-        <v>1</v>
-      </c>
-      <c r="AN40">
-        <v>1</v>
-      </c>
-      <c r="AO40">
-        <v>0</v>
-      </c>
-      <c r="AP40">
-        <v>1</v>
-      </c>
-      <c r="AQ40" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR40">
-        <v>1</v>
+        <v>156</v>
       </c>
       <c r="AT40" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AU40">
-        <v>0.01249258625934708</v>
+        <v>0.0140543775274135</v>
       </c>
       <c r="AV40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX40">
         <v>1</v>
@@ -8287,37 +7831,13 @@
         <v>0</v>
       </c>
       <c r="BA40">
-        <v>25</v>
-      </c>
-      <c r="BC40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BD40">
-        <v>0.01127099036337603</v>
-      </c>
-      <c r="BE40">
-        <v>1</v>
-      </c>
-      <c r="BF40">
-        <v>1</v>
-      </c>
-      <c r="BG40">
-        <v>0</v>
-      </c>
-      <c r="BH40">
-        <v>1</v>
-      </c>
-      <c r="BI40" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ40">
-        <v>1</v>
+        <v>156</v>
       </c>
       <c r="BL40" s="1" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="BM40">
-        <v>0.01422347108790184</v>
+        <v>0.01490159828105141</v>
       </c>
       <c r="BN40">
         <v>1</v>
@@ -8335,39 +7855,15 @@
         <v>0</v>
       </c>
       <c r="BS40">
-        <v>1</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:71">
-      <c r="A41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41">
-        <v>0.00085414273515849</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
       <c r="J41" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="K41">
-        <v>0.00086343288310927</v>
+        <v>0.006553423298520932</v>
       </c>
       <c r="L41">
         <v>1</v>
@@ -8385,37 +7881,13 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>0</v>
-      </c>
-      <c r="S41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T41">
-        <v>0.0009959535022069084</v>
-      </c>
-      <c r="U41">
-        <v>1</v>
-      </c>
-      <c r="V41">
-        <v>1</v>
-      </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-      <c r="X41">
-        <v>1</v>
-      </c>
-      <c r="Y41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z41">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="AB41" s="1" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="AC41">
-        <v>0.009097920061232648</v>
+        <v>0.01226232054435841</v>
       </c>
       <c r="AD41">
         <v>1</v>
@@ -8433,37 +7905,13 @@
         <v>0</v>
       </c>
       <c r="AI41">
-        <v>1</v>
-      </c>
-      <c r="AK41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL41">
-        <v>0.009464730161755129</v>
-      </c>
-      <c r="AM41">
-        <v>1</v>
-      </c>
-      <c r="AN41">
-        <v>1</v>
-      </c>
-      <c r="AO41">
-        <v>0</v>
-      </c>
-      <c r="AP41">
-        <v>1</v>
-      </c>
-      <c r="AQ41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR41">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="AT41" s="1" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="AU41">
-        <v>0.01248971701177167</v>
+        <v>0.01400523634724771</v>
       </c>
       <c r="AV41">
         <v>1</v>
@@ -8481,37 +7929,13 @@
         <v>0</v>
       </c>
       <c r="BA41">
-        <v>1</v>
-      </c>
-      <c r="BC41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BD41">
-        <v>0.01127099036337603</v>
-      </c>
-      <c r="BE41">
-        <v>1</v>
-      </c>
-      <c r="BF41">
-        <v>1</v>
-      </c>
-      <c r="BG41">
-        <v>0</v>
-      </c>
-      <c r="BH41">
-        <v>1</v>
-      </c>
-      <c r="BI41" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ41">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="BL41" s="1" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="BM41">
-        <v>0.01422347108790184</v>
+        <v>0.01484949479055822</v>
       </c>
       <c r="BN41">
         <v>1</v>
@@ -8529,39 +7953,15 @@
         <v>0</v>
       </c>
       <c r="BS41">
-        <v>1</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:71">
-      <c r="A42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42">
-        <v>0.00085414273515849</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
       <c r="J42" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="K42">
-        <v>0.0008608587082610177</v>
+        <v>0.006553423298520932</v>
       </c>
       <c r="L42">
         <v>1</v>
@@ -8579,37 +7979,13 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>1</v>
-      </c>
-      <c r="S42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="T42">
-        <v>0.0009959535022069084</v>
-      </c>
-      <c r="U42">
-        <v>1</v>
-      </c>
-      <c r="V42">
-        <v>1</v>
-      </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
-        <v>1</v>
-      </c>
-      <c r="Y42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z42">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="AB42" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="AC42">
-        <v>0.009097920061232648</v>
+        <v>0.01226232054435841</v>
       </c>
       <c r="AD42">
         <v>1</v>
@@ -8627,37 +8003,13 @@
         <v>0</v>
       </c>
       <c r="AI42">
-        <v>1</v>
-      </c>
-      <c r="AK42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL42">
-        <v>0.009464730161755129</v>
-      </c>
-      <c r="AM42">
-        <v>1</v>
-      </c>
-      <c r="AN42">
-        <v>1</v>
-      </c>
-      <c r="AO42">
-        <v>0</v>
-      </c>
-      <c r="AP42">
-        <v>1</v>
-      </c>
-      <c r="AQ42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR42">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="AT42" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="AU42">
-        <v>0.01248971701177167</v>
+        <v>0.01400523634724771</v>
       </c>
       <c r="AV42">
         <v>1</v>
@@ -8675,37 +8027,13 @@
         <v>0</v>
       </c>
       <c r="BA42">
-        <v>1</v>
-      </c>
-      <c r="BC42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BD42">
-        <v>0.01127099036337603</v>
-      </c>
-      <c r="BE42">
-        <v>1</v>
-      </c>
-      <c r="BF42">
-        <v>1</v>
-      </c>
-      <c r="BG42">
-        <v>0</v>
-      </c>
-      <c r="BH42">
-        <v>1</v>
-      </c>
-      <c r="BI42" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ42">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="BL42" s="1" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="BM42">
-        <v>0.01422347108790184</v>
+        <v>0.01484949479055822</v>
       </c>
       <c r="BN42">
         <v>1</v>
@@ -8723,39 +8051,15 @@
         <v>0</v>
       </c>
       <c r="BS42">
-        <v>1</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:71">
-      <c r="A43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43">
-        <v>0.00085414273515849</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
       <c r="J43" s="1" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="K43">
-        <v>0.0008608587082610177</v>
+        <v>0</v>
       </c>
       <c r="L43">
         <v>1</v>
@@ -8773,37 +8077,13 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>1</v>
-      </c>
-      <c r="S43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="T43">
-        <v>0.0009959535022069084</v>
-      </c>
-      <c r="U43">
-        <v>1</v>
-      </c>
-      <c r="V43">
-        <v>1</v>
-      </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
-      <c r="X43">
-        <v>1</v>
-      </c>
-      <c r="Y43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z43">
-        <v>1</v>
+        <v>442</v>
       </c>
       <c r="AB43" s="1" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="AC43">
-        <v>0.009097920061232648</v>
+        <v>0</v>
       </c>
       <c r="AD43">
         <v>1</v>
@@ -8821,37 +8101,13 @@
         <v>0</v>
       </c>
       <c r="AI43">
-        <v>1</v>
-      </c>
-      <c r="AK43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL43">
-        <v>0.009464730161755129</v>
-      </c>
-      <c r="AM43">
-        <v>1</v>
-      </c>
-      <c r="AN43">
-        <v>1</v>
-      </c>
-      <c r="AO43">
-        <v>0</v>
-      </c>
-      <c r="AP43">
-        <v>1</v>
-      </c>
-      <c r="AQ43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR43">
-        <v>1</v>
+        <v>442</v>
       </c>
       <c r="AT43" s="1" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="AU43">
-        <v>0.01248971701177167</v>
+        <v>0</v>
       </c>
       <c r="AV43">
         <v>1</v>
@@ -8869,43 +8125,19 @@
         <v>0</v>
       </c>
       <c r="BA43">
-        <v>1</v>
-      </c>
-      <c r="BC43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="BD43">
-        <v>0.01127099036337603</v>
-      </c>
-      <c r="BE43">
-        <v>1</v>
-      </c>
-      <c r="BF43">
-        <v>1</v>
-      </c>
-      <c r="BG43">
-        <v>0</v>
-      </c>
-      <c r="BH43">
-        <v>1</v>
-      </c>
-      <c r="BI43" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ43">
-        <v>1</v>
+        <v>442</v>
       </c>
       <c r="BL43" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="BM43">
-        <v>0.01420505200342688</v>
+        <v>0</v>
       </c>
       <c r="BN43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP43">
         <v>1</v>
@@ -8917,2437 +8149,7 @@
         <v>0</v>
       </c>
       <c r="BS43">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:71">
-      <c r="A44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44">
-        <v>0.0008515685603102376</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>2</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K44">
-        <v>0.0008608587082610177</v>
-      </c>
-      <c r="L44">
-        <v>1</v>
-      </c>
-      <c r="M44">
-        <v>1</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>1</v>
-      </c>
-      <c r="S44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="T44">
-        <v>0.0009837261716777095</v>
-      </c>
-      <c r="U44">
-        <v>1</v>
-      </c>
-      <c r="V44">
-        <v>1</v>
-      </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
-      <c r="X44">
-        <v>1</v>
-      </c>
-      <c r="Y44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z44">
-        <v>2</v>
-      </c>
-      <c r="AB44" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC44">
-        <v>0.009097920061232648</v>
-      </c>
-      <c r="AD44">
-        <v>1</v>
-      </c>
-      <c r="AE44">
-        <v>1</v>
-      </c>
-      <c r="AF44">
-        <v>1</v>
-      </c>
-      <c r="AG44">
-        <v>0</v>
-      </c>
-      <c r="AH44" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI44">
-        <v>1</v>
-      </c>
-      <c r="AK44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AL44">
-        <v>0.009344923450846839</v>
-      </c>
-      <c r="AM44">
-        <v>1</v>
-      </c>
-      <c r="AN44">
-        <v>1</v>
-      </c>
-      <c r="AO44">
-        <v>0</v>
-      </c>
-      <c r="AP44">
-        <v>1</v>
-      </c>
-      <c r="AQ44" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR44">
-        <v>2</v>
-      </c>
-      <c r="AT44" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AU44">
-        <v>0.01248971701177167</v>
-      </c>
-      <c r="AV44">
-        <v>1</v>
-      </c>
-      <c r="AW44">
-        <v>1</v>
-      </c>
-      <c r="AX44">
-        <v>1</v>
-      </c>
-      <c r="AY44">
-        <v>0</v>
-      </c>
-      <c r="AZ44" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA44">
-        <v>1</v>
-      </c>
-      <c r="BC44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BD44">
-        <v>0.01112831959928266</v>
-      </c>
-      <c r="BE44">
-        <v>1</v>
-      </c>
-      <c r="BF44">
-        <v>1</v>
-      </c>
-      <c r="BG44">
-        <v>0</v>
-      </c>
-      <c r="BH44">
-        <v>1</v>
-      </c>
-      <c r="BI44" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ44">
-        <v>2</v>
-      </c>
-      <c r="BL44" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BM44">
-        <v>0.01412053592845672</v>
-      </c>
-      <c r="BN44">
-        <v>1</v>
-      </c>
-      <c r="BO44">
-        <v>1</v>
-      </c>
-      <c r="BP44">
-        <v>1</v>
-      </c>
-      <c r="BQ44">
-        <v>0</v>
-      </c>
-      <c r="BR44" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:71">
-      <c r="A45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45">
-        <v>0.0008515685603102376</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>2</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K45">
-        <v>0.0008608587082610177</v>
-      </c>
-      <c r="L45">
-        <v>1</v>
-      </c>
-      <c r="M45">
-        <v>1</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>1</v>
-      </c>
-      <c r="S45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="T45">
-        <v>0.0009837261716777095</v>
-      </c>
-      <c r="U45">
-        <v>1</v>
-      </c>
-      <c r="V45">
-        <v>1</v>
-      </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-      <c r="X45">
-        <v>1</v>
-      </c>
-      <c r="Y45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z45">
-        <v>2</v>
-      </c>
-      <c r="AB45" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC45">
-        <v>0.009097920061232648</v>
-      </c>
-      <c r="AD45">
-        <v>1</v>
-      </c>
-      <c r="AE45">
-        <v>1</v>
-      </c>
-      <c r="AF45">
-        <v>1</v>
-      </c>
-      <c r="AG45">
-        <v>0</v>
-      </c>
-      <c r="AH45" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI45">
-        <v>1</v>
-      </c>
-      <c r="AK45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL45">
-        <v>0.009344923450846839</v>
-      </c>
-      <c r="AM45">
-        <v>1</v>
-      </c>
-      <c r="AN45">
-        <v>1</v>
-      </c>
-      <c r="AO45">
-        <v>0</v>
-      </c>
-      <c r="AP45">
-        <v>1</v>
-      </c>
-      <c r="AQ45" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR45">
-        <v>2</v>
-      </c>
-      <c r="AT45" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AU45">
-        <v>0.01248971701177167</v>
-      </c>
-      <c r="AV45">
-        <v>1</v>
-      </c>
-      <c r="AW45">
-        <v>1</v>
-      </c>
-      <c r="AX45">
-        <v>1</v>
-      </c>
-      <c r="AY45">
-        <v>0</v>
-      </c>
-      <c r="AZ45" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA45">
-        <v>1</v>
-      </c>
-      <c r="BC45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BD45">
-        <v>0.01112831959928266</v>
-      </c>
-      <c r="BE45">
-        <v>1</v>
-      </c>
-      <c r="BF45">
-        <v>1</v>
-      </c>
-      <c r="BG45">
-        <v>0</v>
-      </c>
-      <c r="BH45">
-        <v>1</v>
-      </c>
-      <c r="BI45" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ45">
-        <v>2</v>
-      </c>
-      <c r="BL45" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="BM45">
-        <v>0.0140176007690116</v>
-      </c>
-      <c r="BN45">
-        <v>1</v>
-      </c>
-      <c r="BO45">
-        <v>1</v>
-      </c>
-      <c r="BP45">
-        <v>1</v>
-      </c>
-      <c r="BQ45">
-        <v>0</v>
-      </c>
-      <c r="BR45" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:71">
-      <c r="A46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46">
-        <v>0.0008489943854619851</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>3</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K46">
-        <v>0.0008608587082610177</v>
-      </c>
-      <c r="L46">
-        <v>1</v>
-      </c>
-      <c r="M46">
-        <v>1</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>1</v>
-      </c>
-      <c r="S46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T46">
-        <v>0.0009714988411485107</v>
-      </c>
-      <c r="U46">
-        <v>1</v>
-      </c>
-      <c r="V46">
-        <v>1</v>
-      </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
-      <c r="X46">
-        <v>1</v>
-      </c>
-      <c r="Y46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z46">
-        <v>3</v>
-      </c>
-      <c r="AB46" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC46">
-        <v>0.009017369961373388</v>
-      </c>
-      <c r="AD46">
-        <v>1</v>
-      </c>
-      <c r="AE46">
-        <v>1</v>
-      </c>
-      <c r="AF46">
-        <v>1</v>
-      </c>
-      <c r="AG46">
-        <v>0</v>
-      </c>
-      <c r="AH46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI46">
-        <v>2</v>
-      </c>
-      <c r="AK46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL46">
-        <v>0.009225116739938545</v>
-      </c>
-      <c r="AM46">
-        <v>1</v>
-      </c>
-      <c r="AN46">
-        <v>1</v>
-      </c>
-      <c r="AO46">
-        <v>0</v>
-      </c>
-      <c r="AP46">
-        <v>1</v>
-      </c>
-      <c r="AQ46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR46">
-        <v>3</v>
-      </c>
-      <c r="AT46" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AU46">
-        <v>0.01239435375788353</v>
-      </c>
-      <c r="AV46">
-        <v>1</v>
-      </c>
-      <c r="AW46">
-        <v>1</v>
-      </c>
-      <c r="AX46">
-        <v>1</v>
-      </c>
-      <c r="AY46">
-        <v>0</v>
-      </c>
-      <c r="AZ46" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA46">
-        <v>2</v>
-      </c>
-      <c r="BC46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BD46">
-        <v>0.0109856488351893</v>
-      </c>
-      <c r="BE46">
-        <v>1</v>
-      </c>
-      <c r="BF46">
-        <v>1</v>
-      </c>
-      <c r="BG46">
-        <v>0</v>
-      </c>
-      <c r="BH46">
-        <v>1</v>
-      </c>
-      <c r="BI46" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ46">
-        <v>3</v>
-      </c>
-      <c r="BL46" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="BM46">
-        <v>0.0140176007690116</v>
-      </c>
-      <c r="BN46">
-        <v>1</v>
-      </c>
-      <c r="BO46">
-        <v>1</v>
-      </c>
-      <c r="BP46">
-        <v>1</v>
-      </c>
-      <c r="BQ46">
-        <v>0</v>
-      </c>
-      <c r="BR46" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:71">
-      <c r="A47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47">
-        <v>0.0008489943854619851</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>3</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K47">
-        <v>0.0008582845334127653</v>
-      </c>
-      <c r="L47">
-        <v>1</v>
-      </c>
-      <c r="M47">
-        <v>1</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>2</v>
-      </c>
-      <c r="S47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="T47">
-        <v>0.0009714988411485107</v>
-      </c>
-      <c r="U47">
-        <v>1</v>
-      </c>
-      <c r="V47">
-        <v>1</v>
-      </c>
-      <c r="W47">
-        <v>0</v>
-      </c>
-      <c r="X47">
-        <v>1</v>
-      </c>
-      <c r="Y47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z47">
-        <v>3</v>
-      </c>
-      <c r="AB47" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC47">
-        <v>0.008936819861514128</v>
-      </c>
-      <c r="AD47">
-        <v>1</v>
-      </c>
-      <c r="AE47">
-        <v>1</v>
-      </c>
-      <c r="AF47">
-        <v>1</v>
-      </c>
-      <c r="AG47">
-        <v>0</v>
-      </c>
-      <c r="AH47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI47">
-        <v>3</v>
-      </c>
-      <c r="AK47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL47">
-        <v>0.009225116739938545</v>
-      </c>
-      <c r="AM47">
-        <v>1</v>
-      </c>
-      <c r="AN47">
-        <v>1</v>
-      </c>
-      <c r="AO47">
-        <v>0</v>
-      </c>
-      <c r="AP47">
-        <v>1</v>
-      </c>
-      <c r="AQ47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR47">
-        <v>3</v>
-      </c>
-      <c r="AT47" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AU47">
-        <v>0.01229899050399538</v>
-      </c>
-      <c r="AV47">
-        <v>1</v>
-      </c>
-      <c r="AW47">
-        <v>1</v>
-      </c>
-      <c r="AX47">
-        <v>1</v>
-      </c>
-      <c r="AY47">
-        <v>0</v>
-      </c>
-      <c r="AZ47" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA47">
-        <v>3</v>
-      </c>
-      <c r="BC47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BD47">
-        <v>0.0109856488351893</v>
-      </c>
-      <c r="BE47">
-        <v>1</v>
-      </c>
-      <c r="BF47">
-        <v>1</v>
-      </c>
-      <c r="BG47">
-        <v>0</v>
-      </c>
-      <c r="BH47">
-        <v>1</v>
-      </c>
-      <c r="BI47" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ47">
-        <v>3</v>
-      </c>
-      <c r="BL47" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BM47">
-        <v>0.01391466560956648</v>
-      </c>
-      <c r="BN47">
-        <v>1</v>
-      </c>
-      <c r="BO47">
-        <v>1</v>
-      </c>
-      <c r="BP47">
-        <v>1</v>
-      </c>
-      <c r="BQ47">
-        <v>0</v>
-      </c>
-      <c r="BR47" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS47">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:71">
-      <c r="A48" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48">
-        <v>0.0008464202106137327</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>4</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K48">
-        <v>0.0008557103585645128</v>
-      </c>
-      <c r="L48">
-        <v>1</v>
-      </c>
-      <c r="M48">
-        <v>1</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>3</v>
-      </c>
-      <c r="S48" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="T48">
-        <v>0.0009592715106193118</v>
-      </c>
-      <c r="U48">
-        <v>1</v>
-      </c>
-      <c r="V48">
-        <v>1</v>
-      </c>
-      <c r="W48">
-        <v>0</v>
-      </c>
-      <c r="X48">
-        <v>1</v>
-      </c>
-      <c r="Y48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z48">
-        <v>4</v>
-      </c>
-      <c r="AB48" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC48">
-        <v>0.008936819861514128</v>
-      </c>
-      <c r="AD48">
-        <v>1</v>
-      </c>
-      <c r="AE48">
-        <v>1</v>
-      </c>
-      <c r="AF48">
-        <v>1</v>
-      </c>
-      <c r="AG48">
-        <v>0</v>
-      </c>
-      <c r="AH48" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI48">
-        <v>3</v>
-      </c>
-      <c r="AK48" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL48">
-        <v>0.009105310029030252</v>
-      </c>
-      <c r="AM48">
-        <v>1</v>
-      </c>
-      <c r="AN48">
-        <v>1</v>
-      </c>
-      <c r="AO48">
-        <v>0</v>
-      </c>
-      <c r="AP48">
-        <v>1</v>
-      </c>
-      <c r="AQ48" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR48">
-        <v>4</v>
-      </c>
-      <c r="AT48" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AU48">
-        <v>0.01229899050399538</v>
-      </c>
-      <c r="AV48">
-        <v>1</v>
-      </c>
-      <c r="AW48">
-        <v>1</v>
-      </c>
-      <c r="AX48">
-        <v>1</v>
-      </c>
-      <c r="AY48">
-        <v>0</v>
-      </c>
-      <c r="AZ48" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA48">
-        <v>3</v>
-      </c>
-      <c r="BC48" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD48">
-        <v>0.01084297807109593</v>
-      </c>
-      <c r="BE48">
-        <v>1</v>
-      </c>
-      <c r="BF48">
-        <v>1</v>
-      </c>
-      <c r="BG48">
-        <v>0</v>
-      </c>
-      <c r="BH48">
-        <v>1</v>
-      </c>
-      <c r="BI48" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ48">
-        <v>4</v>
-      </c>
-      <c r="BL48" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="BM48">
-        <v>0.01391466560956648</v>
-      </c>
-      <c r="BN48">
-        <v>1</v>
-      </c>
-      <c r="BO48">
-        <v>1</v>
-      </c>
-      <c r="BP48">
-        <v>1</v>
-      </c>
-      <c r="BQ48">
-        <v>0</v>
-      </c>
-      <c r="BR48" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS48">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:71">
-      <c r="A49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49">
-        <v>0.0008438460357654804</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>5</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K49">
-        <v>0.0008557103585645128</v>
-      </c>
-      <c r="L49">
-        <v>1</v>
-      </c>
-      <c r="M49">
-        <v>1</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>3</v>
-      </c>
-      <c r="S49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="T49">
-        <v>0.0009470441800901129</v>
-      </c>
-      <c r="U49">
-        <v>1</v>
-      </c>
-      <c r="V49">
-        <v>1</v>
-      </c>
-      <c r="W49">
-        <v>0</v>
-      </c>
-      <c r="X49">
-        <v>1</v>
-      </c>
-      <c r="Y49" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z49">
-        <v>5</v>
-      </c>
-      <c r="AB49" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC49">
-        <v>0.008856269761654866</v>
-      </c>
-      <c r="AD49">
-        <v>1</v>
-      </c>
-      <c r="AE49">
-        <v>1</v>
-      </c>
-      <c r="AF49">
-        <v>1</v>
-      </c>
-      <c r="AG49">
-        <v>0</v>
-      </c>
-      <c r="AH49" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI49">
-        <v>4</v>
-      </c>
-      <c r="AK49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL49">
-        <v>0.008985503318121958</v>
-      </c>
-      <c r="AM49">
-        <v>1</v>
-      </c>
-      <c r="AN49">
-        <v>1</v>
-      </c>
-      <c r="AO49">
-        <v>0</v>
-      </c>
-      <c r="AP49">
-        <v>1</v>
-      </c>
-      <c r="AQ49" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR49">
-        <v>5</v>
-      </c>
-      <c r="AT49" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AU49">
-        <v>0.01220362725010724</v>
-      </c>
-      <c r="AV49">
-        <v>1</v>
-      </c>
-      <c r="AW49">
-        <v>1</v>
-      </c>
-      <c r="AX49">
-        <v>1</v>
-      </c>
-      <c r="AY49">
-        <v>0</v>
-      </c>
-      <c r="AZ49" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA49">
-        <v>4</v>
-      </c>
-      <c r="BC49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD49">
-        <v>0.01070030730700256</v>
-      </c>
-      <c r="BE49">
-        <v>1</v>
-      </c>
-      <c r="BF49">
-        <v>1</v>
-      </c>
-      <c r="BG49">
-        <v>0</v>
-      </c>
-      <c r="BH49">
-        <v>1</v>
-      </c>
-      <c r="BI49" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ49">
-        <v>5</v>
-      </c>
-      <c r="BL49" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="BM49">
-        <v>0.01381173045012135</v>
-      </c>
-      <c r="BN49">
-        <v>1</v>
-      </c>
-      <c r="BO49">
-        <v>1</v>
-      </c>
-      <c r="BP49">
-        <v>1</v>
-      </c>
-      <c r="BQ49">
-        <v>0</v>
-      </c>
-      <c r="BR49" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS49">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:71">
-      <c r="A50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50">
-        <v>0.0008386976860689755</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>7</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K50">
-        <v>0.0008531361837162604</v>
-      </c>
-      <c r="L50">
-        <v>1</v>
-      </c>
-      <c r="M50">
-        <v>1</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>4</v>
-      </c>
-      <c r="S50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T50">
-        <v>0.0009225895190317153</v>
-      </c>
-      <c r="U50">
-        <v>1</v>
-      </c>
-      <c r="V50">
-        <v>1</v>
-      </c>
-      <c r="W50">
-        <v>0</v>
-      </c>
-      <c r="X50">
-        <v>1</v>
-      </c>
-      <c r="Y50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z50">
-        <v>7</v>
-      </c>
-      <c r="AB50" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC50">
-        <v>0.008856269761654866</v>
-      </c>
-      <c r="AD50">
-        <v>1</v>
-      </c>
-      <c r="AE50">
-        <v>1</v>
-      </c>
-      <c r="AF50">
-        <v>1</v>
-      </c>
-      <c r="AG50">
-        <v>0</v>
-      </c>
-      <c r="AH50" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI50">
-        <v>4</v>
-      </c>
-      <c r="AK50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL50">
-        <v>0.008745889896305375</v>
-      </c>
-      <c r="AM50">
-        <v>1</v>
-      </c>
-      <c r="AN50">
-        <v>1</v>
-      </c>
-      <c r="AO50">
-        <v>0</v>
-      </c>
-      <c r="AP50">
-        <v>1</v>
-      </c>
-      <c r="AQ50" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR50">
-        <v>7</v>
-      </c>
-      <c r="AT50" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AU50">
-        <v>0.01220362725010724</v>
-      </c>
-      <c r="AV50">
-        <v>1</v>
-      </c>
-      <c r="AW50">
-        <v>1</v>
-      </c>
-      <c r="AX50">
-        <v>1</v>
-      </c>
-      <c r="AY50">
-        <v>0</v>
-      </c>
-      <c r="AZ50" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA50">
-        <v>4</v>
-      </c>
-      <c r="BC50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BD50">
-        <v>0.01041496577881583</v>
-      </c>
-      <c r="BE50">
-        <v>1</v>
-      </c>
-      <c r="BF50">
-        <v>1</v>
-      </c>
-      <c r="BG50">
-        <v>0</v>
-      </c>
-      <c r="BH50">
-        <v>1</v>
-      </c>
-      <c r="BI50" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ50">
-        <v>7</v>
-      </c>
-      <c r="BL50" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="BM50">
-        <v>0.01370879529067623</v>
-      </c>
-      <c r="BN50">
-        <v>1</v>
-      </c>
-      <c r="BO50">
-        <v>1</v>
-      </c>
-      <c r="BP50">
-        <v>1</v>
-      </c>
-      <c r="BQ50">
-        <v>0</v>
-      </c>
-      <c r="BR50" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS50">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:71">
-      <c r="A51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51">
-        <v>0.0008386976860689755</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>7</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K51">
-        <v>0.0008531361837162604</v>
-      </c>
-      <c r="L51">
-        <v>1</v>
-      </c>
-      <c r="M51">
-        <v>1</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>4</v>
-      </c>
-      <c r="S51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="T51">
-        <v>0.0009225895190317153</v>
-      </c>
-      <c r="U51">
-        <v>1</v>
-      </c>
-      <c r="V51">
-        <v>1</v>
-      </c>
-      <c r="W51">
-        <v>0</v>
-      </c>
-      <c r="X51">
-        <v>1</v>
-      </c>
-      <c r="Y51" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z51">
-        <v>7</v>
-      </c>
-      <c r="AB51" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC51">
-        <v>0.008775719661795606</v>
-      </c>
-      <c r="AD51">
-        <v>1</v>
-      </c>
-      <c r="AE51">
-        <v>1</v>
-      </c>
-      <c r="AF51">
-        <v>1</v>
-      </c>
-      <c r="AG51">
-        <v>0</v>
-      </c>
-      <c r="AH51" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI51">
-        <v>5</v>
-      </c>
-      <c r="AK51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL51">
-        <v>0.008745889896305375</v>
-      </c>
-      <c r="AM51">
-        <v>1</v>
-      </c>
-      <c r="AN51">
-        <v>1</v>
-      </c>
-      <c r="AO51">
-        <v>0</v>
-      </c>
-      <c r="AP51">
-        <v>1</v>
-      </c>
-      <c r="AQ51" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR51">
-        <v>7</v>
-      </c>
-      <c r="AT51" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AU51">
-        <v>0.01210826399621909</v>
-      </c>
-      <c r="AV51">
-        <v>1</v>
-      </c>
-      <c r="AW51">
-        <v>1</v>
-      </c>
-      <c r="AX51">
-        <v>1</v>
-      </c>
-      <c r="AY51">
-        <v>0</v>
-      </c>
-      <c r="AZ51" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA51">
-        <v>5</v>
-      </c>
-      <c r="BC51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BD51">
-        <v>0.01041496577881583</v>
-      </c>
-      <c r="BE51">
-        <v>1</v>
-      </c>
-      <c r="BF51">
-        <v>1</v>
-      </c>
-      <c r="BG51">
-        <v>0</v>
-      </c>
-      <c r="BH51">
-        <v>1</v>
-      </c>
-      <c r="BI51" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ51">
-        <v>7</v>
-      </c>
-      <c r="BL51" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="BM51">
-        <v>0.01370879529067623</v>
-      </c>
-      <c r="BN51">
-        <v>1</v>
-      </c>
-      <c r="BO51">
-        <v>1</v>
-      </c>
-      <c r="BP51">
-        <v>1</v>
-      </c>
-      <c r="BQ51">
-        <v>0</v>
-      </c>
-      <c r="BR51" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS51">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:71">
-      <c r="A52" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52">
-        <v>0.0008206784621312088</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>14</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K52">
-        <v>0.0008505620088680081</v>
-      </c>
-      <c r="L52">
-        <v>1</v>
-      </c>
-      <c r="M52">
-        <v>1</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>5</v>
-      </c>
-      <c r="S52" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="T52">
-        <v>0.0008369982053273232</v>
-      </c>
-      <c r="U52">
-        <v>1</v>
-      </c>
-      <c r="V52">
-        <v>1</v>
-      </c>
-      <c r="W52">
-        <v>0</v>
-      </c>
-      <c r="X52">
-        <v>1</v>
-      </c>
-      <c r="Y52" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z52">
-        <v>14</v>
-      </c>
-      <c r="AB52" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC52">
-        <v>0.008695169561936346</v>
-      </c>
-      <c r="AD52">
-        <v>1</v>
-      </c>
-      <c r="AE52">
-        <v>1</v>
-      </c>
-      <c r="AF52">
-        <v>1</v>
-      </c>
-      <c r="AG52">
-        <v>0</v>
-      </c>
-      <c r="AH52" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI52">
-        <v>6</v>
-      </c>
-      <c r="AK52" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL52">
-        <v>0.007907242919947325</v>
-      </c>
-      <c r="AM52">
-        <v>1</v>
-      </c>
-      <c r="AN52">
-        <v>1</v>
-      </c>
-      <c r="AO52">
-        <v>0</v>
-      </c>
-      <c r="AP52">
-        <v>1</v>
-      </c>
-      <c r="AQ52" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR52">
-        <v>14</v>
-      </c>
-      <c r="AT52" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AU52">
-        <v>0.01201290074233094</v>
-      </c>
-      <c r="AV52">
-        <v>1</v>
-      </c>
-      <c r="AW52">
-        <v>1</v>
-      </c>
-      <c r="AX52">
-        <v>1</v>
-      </c>
-      <c r="AY52">
-        <v>0</v>
-      </c>
-      <c r="AZ52" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA52">
-        <v>6</v>
-      </c>
-      <c r="BC52" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD52">
-        <v>0.009416270430162254</v>
-      </c>
-      <c r="BE52">
-        <v>1</v>
-      </c>
-      <c r="BF52">
-        <v>1</v>
-      </c>
-      <c r="BG52">
-        <v>0</v>
-      </c>
-      <c r="BH52">
-        <v>1</v>
-      </c>
-      <c r="BI52" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ52">
-        <v>14</v>
-      </c>
-      <c r="BL52" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="BM52">
-        <v>0.01348450588731103</v>
-      </c>
-      <c r="BN52">
-        <v>2</v>
-      </c>
-      <c r="BO52">
-        <v>2</v>
-      </c>
-      <c r="BP52">
-        <v>1</v>
-      </c>
-      <c r="BQ52">
-        <v>0</v>
-      </c>
-      <c r="BR52" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS52">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:71">
-      <c r="A53" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53">
-        <v>0.0006507829221465507</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>80</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K53">
-        <v>0.0008479878340197557</v>
-      </c>
-      <c r="L53">
-        <v>1</v>
-      </c>
-      <c r="M53">
-        <v>1</v>
-      </c>
-      <c r="N53">
-        <v>1</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>6</v>
-      </c>
-      <c r="S53" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="T53">
-        <v>2.999439040019824E-05</v>
-      </c>
-      <c r="U53">
-        <v>1</v>
-      </c>
-      <c r="V53">
-        <v>1</v>
-      </c>
-      <c r="W53">
-        <v>0</v>
-      </c>
-      <c r="X53">
-        <v>1</v>
-      </c>
-      <c r="Y53" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z53">
-        <v>80</v>
-      </c>
-      <c r="AB53" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AC53">
-        <v>0.008695169561936346</v>
-      </c>
-      <c r="AD53">
-        <v>1</v>
-      </c>
-      <c r="AE53">
-        <v>1</v>
-      </c>
-      <c r="AF53">
-        <v>1</v>
-      </c>
-      <c r="AG53">
-        <v>0</v>
-      </c>
-      <c r="AH53" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI53">
-        <v>6</v>
-      </c>
-      <c r="AK53" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL53">
-        <v>0</v>
-      </c>
-      <c r="AM53">
-        <v>1</v>
-      </c>
-      <c r="AN53">
-        <v>1</v>
-      </c>
-      <c r="AO53">
-        <v>0</v>
-      </c>
-      <c r="AP53">
-        <v>1</v>
-      </c>
-      <c r="AQ53" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR53">
-        <v>80</v>
-      </c>
-      <c r="AT53" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AU53">
-        <v>0.01201290074233094</v>
-      </c>
-      <c r="AV53">
-        <v>1</v>
-      </c>
-      <c r="AW53">
-        <v>1</v>
-      </c>
-      <c r="AX53">
-        <v>1</v>
-      </c>
-      <c r="AY53">
-        <v>0</v>
-      </c>
-      <c r="AZ53" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA53">
-        <v>6</v>
-      </c>
-      <c r="BC53" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BD53">
-        <v>0</v>
-      </c>
-      <c r="BE53">
-        <v>1</v>
-      </c>
-      <c r="BF53">
-        <v>1</v>
-      </c>
-      <c r="BG53">
-        <v>0</v>
-      </c>
-      <c r="BH53">
-        <v>1</v>
-      </c>
-      <c r="BI53" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ53">
-        <v>80</v>
-      </c>
-      <c r="BL53" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="BM53">
-        <v>0.01206183273955427</v>
-      </c>
-      <c r="BN53">
-        <v>1</v>
-      </c>
-      <c r="BO53">
-        <v>1</v>
-      </c>
-      <c r="BP53">
-        <v>1</v>
-      </c>
-      <c r="BQ53">
-        <v>0</v>
-      </c>
-      <c r="BR53" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS53">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="54" spans="1:71">
-      <c r="J54" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K54">
-        <v>0.0008479878340197557</v>
-      </c>
-      <c r="L54">
-        <v>1</v>
-      </c>
-      <c r="M54">
-        <v>1</v>
-      </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>6</v>
-      </c>
-      <c r="AB54" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC54">
-        <v>0.00740636796418817</v>
-      </c>
-      <c r="AD54">
-        <v>1</v>
-      </c>
-      <c r="AE54">
-        <v>1</v>
-      </c>
-      <c r="AF54">
-        <v>1</v>
-      </c>
-      <c r="AG54">
-        <v>0</v>
-      </c>
-      <c r="AH54" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI54">
-        <v>22</v>
-      </c>
-      <c r="AT54" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AU54">
-        <v>0.01048708868012061</v>
-      </c>
-      <c r="AV54">
-        <v>1</v>
-      </c>
-      <c r="AW54">
-        <v>1</v>
-      </c>
-      <c r="AX54">
-        <v>1</v>
-      </c>
-      <c r="AY54">
-        <v>0</v>
-      </c>
-      <c r="AZ54" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA54">
-        <v>22</v>
-      </c>
-      <c r="BL54" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="BM54">
-        <v>0.01165009210177378</v>
-      </c>
-      <c r="BN54">
-        <v>1</v>
-      </c>
-      <c r="BO54">
-        <v>1</v>
-      </c>
-      <c r="BP54">
-        <v>1</v>
-      </c>
-      <c r="BQ54">
-        <v>0</v>
-      </c>
-      <c r="BR54" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS54">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="55" spans="1:71">
-      <c r="J55" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K55">
-        <v>0.0008068010364477174</v>
-      </c>
-      <c r="L55">
-        <v>1</v>
-      </c>
-      <c r="M55">
-        <v>1</v>
-      </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>22</v>
-      </c>
-      <c r="AB55" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC55">
-        <v>0.007084167564751127</v>
-      </c>
-      <c r="AD55">
-        <v>1</v>
-      </c>
-      <c r="AE55">
-        <v>1</v>
-      </c>
-      <c r="AF55">
-        <v>1</v>
-      </c>
-      <c r="AG55">
-        <v>0</v>
-      </c>
-      <c r="AH55" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI55">
-        <v>26</v>
-      </c>
-      <c r="AT55" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AU55">
-        <v>0.01010563566456803</v>
-      </c>
-      <c r="AV55">
-        <v>1</v>
-      </c>
-      <c r="AW55">
-        <v>1</v>
-      </c>
-      <c r="AX55">
-        <v>1</v>
-      </c>
-      <c r="AY55">
-        <v>0</v>
-      </c>
-      <c r="AZ55" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA55">
-        <v>26</v>
-      </c>
-      <c r="BL55" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BM55">
-        <v>0.008219654060800509</v>
-      </c>
-      <c r="BN55">
-        <v>14</v>
-      </c>
-      <c r="BO55">
-        <v>14</v>
-      </c>
-      <c r="BP55">
-        <v>1</v>
-      </c>
-      <c r="BQ55">
-        <v>0</v>
-      </c>
-      <c r="BR55" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS55">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="56" spans="1:71">
-      <c r="J56" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K56">
-        <v>0.0007965043370547079</v>
-      </c>
-      <c r="L56">
-        <v>1</v>
-      </c>
-      <c r="M56">
-        <v>1</v>
-      </c>
-      <c r="N56">
-        <v>1</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>26</v>
-      </c>
-      <c r="AB56" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC56">
-        <v>0.002251161573195469</v>
-      </c>
-      <c r="AD56">
-        <v>1</v>
-      </c>
-      <c r="AE56">
-        <v>1</v>
-      </c>
-      <c r="AF56">
-        <v>1</v>
-      </c>
-      <c r="AG56">
-        <v>0</v>
-      </c>
-      <c r="AH56" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI56">
-        <v>86</v>
-      </c>
-      <c r="AT56" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AU56">
-        <v>0.004383840431279291</v>
-      </c>
-      <c r="AV56">
-        <v>1</v>
-      </c>
-      <c r="AW56">
-        <v>1</v>
-      </c>
-      <c r="AX56">
-        <v>1</v>
-      </c>
-      <c r="AY56">
-        <v>0</v>
-      </c>
-      <c r="AZ56" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA56">
-        <v>86</v>
-      </c>
-      <c r="BL56" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BM56">
-        <v>0.005473982535066444</v>
-      </c>
-      <c r="BN56">
-        <v>1</v>
-      </c>
-      <c r="BO56">
-        <v>1</v>
-      </c>
-      <c r="BP56">
-        <v>1</v>
-      </c>
-      <c r="BQ56">
-        <v>0</v>
-      </c>
-      <c r="BR56" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS56">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" spans="1:71">
-      <c r="J57" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K57">
-        <v>0.000642053846159564</v>
-      </c>
-      <c r="L57">
-        <v>1</v>
-      </c>
-      <c r="M57">
-        <v>1</v>
-      </c>
-      <c r="N57">
-        <v>1</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>86</v>
-      </c>
-      <c r="AB57" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC57">
-        <v>0.001204010275025076</v>
-      </c>
-      <c r="AD57">
-        <v>1</v>
-      </c>
-      <c r="AE57">
-        <v>1</v>
-      </c>
-      <c r="AF57">
-        <v>1</v>
-      </c>
-      <c r="AG57">
-        <v>0</v>
-      </c>
-      <c r="AH57" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI57">
-        <v>99</v>
-      </c>
-      <c r="AT57" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AU57">
-        <v>0.003144118130733397</v>
-      </c>
-      <c r="AV57">
-        <v>1</v>
-      </c>
-      <c r="AW57">
-        <v>1</v>
-      </c>
-      <c r="AX57">
-        <v>1</v>
-      </c>
-      <c r="AY57">
-        <v>0</v>
-      </c>
-      <c r="AZ57" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA57">
-        <v>99</v>
-      </c>
-      <c r="BL57" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="BM57">
-        <v>0.004135825462279853</v>
-      </c>
-      <c r="BN57">
-        <v>1</v>
-      </c>
-      <c r="BO57">
-        <v>1</v>
-      </c>
-      <c r="BP57">
-        <v>1</v>
-      </c>
-      <c r="BQ57">
-        <v>0</v>
-      </c>
-      <c r="BR57" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS57">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="58" spans="1:71">
-      <c r="J58" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K58">
-        <v>0.0006085895731322828</v>
-      </c>
-      <c r="L58">
-        <v>1</v>
-      </c>
-      <c r="M58">
-        <v>1</v>
-      </c>
-      <c r="N58">
-        <v>1</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>99</v>
-      </c>
-      <c r="AB58" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC58">
-        <v>0</v>
-      </c>
-      <c r="AD58">
-        <v>2</v>
-      </c>
-      <c r="AE58">
-        <v>2</v>
-      </c>
-      <c r="AF58">
-        <v>1</v>
-      </c>
-      <c r="AG58">
-        <v>0</v>
-      </c>
-      <c r="AH58" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI58">
-        <v>156</v>
-      </c>
-      <c r="AT58" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AU58">
-        <v>0</v>
-      </c>
-      <c r="AV58">
-        <v>2</v>
-      </c>
-      <c r="AW58">
-        <v>2</v>
-      </c>
-      <c r="AX58">
-        <v>1</v>
-      </c>
-      <c r="AY58">
-        <v>0</v>
-      </c>
-      <c r="AZ58" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA58">
-        <v>156</v>
-      </c>
-      <c r="BL58" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BM58">
-        <v>0</v>
-      </c>
-      <c r="BN58">
-        <v>2</v>
-      </c>
-      <c r="BO58">
-        <v>2</v>
-      </c>
-      <c r="BP58">
-        <v>1</v>
-      </c>
-      <c r="BQ58">
-        <v>0</v>
-      </c>
-      <c r="BR58" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS58">
-        <v>156</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>
